--- a/src/attributions/attributions_saliency_traj_488.xlsx
+++ b/src/attributions/attributions_saliency_traj_488.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0174291804432869</v>
+        <v>0.208247497677803</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04556227475404739</v>
+        <v>0.1159680187702179</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02130086161196232</v>
+        <v>0.3101639151573181</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006680730264633894</v>
+        <v>0.2673531770706177</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01566589996218681</v>
+        <v>0.05140402168035507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2019469290971756</v>
+        <v>0.01412583142518997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003981015644967556</v>
+        <v>0.006352514028549194</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1426664143800735</v>
+        <v>0.1638874113559723</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03727732598781586</v>
+        <v>0.02206742390990257</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009915813803672791</v>
+        <v>0.2695512771606445</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02792610786855221</v>
+        <v>0.1347727477550507</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01972192153334618</v>
+        <v>0.2510432004928589</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01808732002973557</v>
+        <v>0.2529127895832062</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02613825723528862</v>
+        <v>0.1808318197727203</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1763504892587662</v>
+        <v>0.001386679010465741</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01614785566926003</v>
+        <v>0.06142137199640274</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1568727344274521</v>
+        <v>0.1623091846704483</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01315340306609869</v>
+        <v>0.04313863068819046</v>
       </c>
       <c r="S2" t="n">
-        <v>0.08355820924043655</v>
+        <v>0.08081918954849243</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02658831141889095</v>
+        <v>0.00744921900331974</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00617662537842989</v>
+        <v>0.02078699506819248</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03128957003355026</v>
+        <v>0.0220630094408989</v>
       </c>
       <c r="W2" t="n">
-        <v>0.004876116290688515</v>
+        <v>0.1147974357008934</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06854114681482315</v>
+        <v>0.05399243161082268</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.005472016520798206</v>
+        <v>0.02134856954216957</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00590323843061924</v>
+        <v>0.1343542188405991</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.004270303063094616</v>
+        <v>0.01992221921682358</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0298128817230463</v>
+        <v>0.02029991336166859</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01041924953460693</v>
+        <v>0.07928933203220367</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01263639610260725</v>
+        <v>0.01405772473663092</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03700172901153564</v>
+        <v>0.06146138161420822</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1021786630153656</v>
+        <v>0.05228303745388985</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.007985599339008331</v>
+        <v>0.005813817959278822</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.05564169213175774</v>
+        <v>0.02857189439237118</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0104606207460165</v>
+        <v>0.02805548161268234</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.007137912325561047</v>
+        <v>0.03145720809698105</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01395564060658216</v>
+        <v>0.0234176479279995</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.01276649720966816</v>
+        <v>0.04926224052906036</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1015987694263458</v>
+        <v>0.01246000919491053</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.02909410186111927</v>
+        <v>0.03343306481838226</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.03580549359321594</v>
+        <v>0.03590293973684311</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.003454506862908602</v>
+        <v>0.03929072618484497</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001855563139542937</v>
+        <v>0.04009855538606644</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0137462206184864</v>
+        <v>0.01532574743032455</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.009353326633572578</v>
+        <v>0.01265248283743858</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.02544298954308033</v>
+        <v>0.009793446399271488</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.01749624311923981</v>
+        <v>0.07012958824634552</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.001859225798398256</v>
+        <v>0.1960477828979492</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.04174415767192841</v>
+        <v>0.2467475086450577</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01913466863334179</v>
+        <v>0.03490498289465904</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.07239362597465515</v>
+        <v>0.07249460369348526</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.03190839663147926</v>
+        <v>0.06796073168516159</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0907520055770874</v>
+        <v>0.1324825435876846</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0359346903860569</v>
+        <v>0.04630765318870544</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0146764162927866</v>
+        <v>0.2229171395301819</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0409453846514225</v>
+        <v>0.09527429938316345</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.003627491416409612</v>
+        <v>0.03888291120529175</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.05243176221847534</v>
+        <v>0.008884545415639877</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0657011941075325</v>
+        <v>0.1699802428483963</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.05045400932431221</v>
+        <v>0.01211372949182987</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.03149516507983208</v>
+        <v>0.1601853221654892</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0197532270103693</v>
+        <v>0.2828366160392761</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.006969788111746311</v>
+        <v>0.02582294493913651</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01720346882939339</v>
+        <v>0.004347633570432663</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.03963310271501541</v>
+        <v>0.04183514788746834</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.06117849051952362</v>
+        <v>0.06267151236534119</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003936328459531069</v>
+        <v>0.08578053116798401</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.03622454032301903</v>
+        <v>0.1116752624511719</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.05853908509016037</v>
+        <v>0.01703164726495743</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.007016083225607872</v>
+        <v>0.06373012810945511</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.009018892422318459</v>
+        <v>0.02305747754871845</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01572909578680992</v>
+        <v>0.03530779853463173</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.02621250599622726</v>
+        <v>0.0194852389395237</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.008254557847976685</v>
+        <v>0.08339714258909225</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0200057253241539</v>
+        <v>0.09696178883314133</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.01080044731497765</v>
+        <v>0.1251496374607086</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.004757959395647049</v>
+        <v>0.06534678488969803</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.06027304008603096</v>
+        <v>0.001571961911395192</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.0127940671518445</v>
+        <v>0.0559014230966568</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.06119704619050026</v>
+        <v>0.1530703902244568</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02166364155709743</v>
+        <v>0.05398218333721161</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.007100924383848906</v>
+        <v>0.04935917630791664</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0005734644364565611</v>
+        <v>0.04440641775727272</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.01584698259830475</v>
+        <v>0.06588437408208847</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0001961737871170044</v>
+        <v>0.05457496643066406</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01423531956970692</v>
+        <v>0.04292235523462296</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0350339338183403</v>
+        <v>0.03474895283579826</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.001842038356699049</v>
+        <v>0.02592432498931885</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.02704891376197338</v>
+        <v>0.03315357491374016</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.01043711975216866</v>
+        <v>0.03175805509090424</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.02261148951947689</v>
+        <v>0.1034502759575844</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.02361204475164413</v>
+        <v>0.04686251282691956</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.01468419097363949</v>
+        <v>0.009018506854772568</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.03099013119935989</v>
+        <v>0.02472108975052834</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.1075786352157593</v>
+        <v>0.08418140560388565</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.04603374749422073</v>
+        <v>0.002451628446578979</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.006216425914317369</v>
+        <v>0.008037533611059189</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.01594536192715168</v>
+        <v>0.08732429146766663</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.009242428466677666</v>
+        <v>0.06224093586206436</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.004432522226125002</v>
+        <v>0.05044552683830261</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.006576240062713623</v>
+        <v>0.02106583490967751</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0199019480496645</v>
+        <v>0.03644838184118271</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.001959612593054771</v>
+        <v>0.0364224836230278</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.01307452097535133</v>
+        <v>0.04693259298801422</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.03929293900728226</v>
+        <v>0.02138589136302471</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.007488684728741646</v>
+        <v>0.007021590135991573</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.03134783729910851</v>
+        <v>0.02046060748398304</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.008259876631200314</v>
+        <v>0.03273627534508705</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.03166181221604347</v>
+        <v>0.007035363465547562</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02300731092691422</v>
+        <v>0.1737668663263321</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.01134225726127625</v>
+        <v>0.05696040019392967</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01467074826359749</v>
+        <v>0.05443065240979195</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01001066528260708</v>
+        <v>0.01938087120652199</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.01693574897944927</v>
+        <v>0.1681064516305923</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.007360212504863739</v>
+        <v>0.1626039445400238</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01843253150582314</v>
+        <v>0.0008842676179483533</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.01473964191973209</v>
+        <v>0.02015746384859085</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.03557572886347771</v>
+        <v>0.01139754988253117</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.03192463144659996</v>
+        <v>0.02008863165974617</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.02057869546115398</v>
+        <v>0.06486896425485611</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.03343008458614349</v>
+        <v>0.006827662698924541</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.04079456627368927</v>
+        <v>0.05627918615937233</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0159781314432621</v>
+        <v>0.02041912451386452</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.005373614374548197</v>
+        <v>0.06359024345874786</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.02297930978238583</v>
+        <v>0.03404074534773827</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.04315324500203133</v>
+        <v>0.02843524515628815</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.007470282725989819</v>
+        <v>0.02594609744846821</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.01578620076179504</v>
+        <v>0.002550018951296806</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.008673750795423985</v>
+        <v>0.03887666761875153</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0105449240654707</v>
+        <v>0.02053104527294636</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00110925454646349</v>
+        <v>0.002066349377855659</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.01016417145729065</v>
+        <v>0.1171456053853035</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001643829280510545</v>
+        <v>0.01356273982673883</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.01190391648560762</v>
+        <v>0.08089405298233032</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01607617363333702</v>
+        <v>0.07341336458921432</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.009685817174613476</v>
+        <v>0.04656608775258064</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.02315669879317284</v>
+        <v>0.0246705561876297</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.009561819955706596</v>
+        <v>0.06640778481960297</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.02473286725580692</v>
+        <v>0.07223419845104218</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.008367286063730717</v>
+        <v>0.007292954251170158</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.06409449875354767</v>
+        <v>0.01713080890476704</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.009133226238191128</v>
+        <v>0.0290644820779562</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02227773703634739</v>
+        <v>0.02690334990620613</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.01158864423632622</v>
+        <v>0.06442006677389145</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01345169357955456</v>
+        <v>0.02457329258322716</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.001023527001962066</v>
+        <v>0.009937326423823833</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02576128952205181</v>
+        <v>0.07207620143890381</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.001797080039978027</v>
+        <v>0.04011711105704308</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02429473958909512</v>
+        <v>0.004727696999907494</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03457124531269073</v>
+        <v>0.01887491531670094</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.009794192388653755</v>
+        <v>0.01692561432719231</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.007926460355520248</v>
+        <v>0.1025870218873024</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.01357506588101387</v>
+        <v>0.003511398332193494</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.001676609506830573</v>
+        <v>0.04442343860864639</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.008841264061629772</v>
+        <v>0.02666733600199223</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0219721682369709</v>
+        <v>0.04927292093634605</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00120160635560751</v>
+        <v>0.03991725295782089</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02229383774101734</v>
+        <v>0.02758490480482578</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0372672900557518</v>
+        <v>0.03282539173960686</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.007777214515954256</v>
+        <v>0.015323999337852</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02790315076708794</v>
+        <v>0.01402838807553053</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.008509961888194084</v>
+        <v>0.04604325070977211</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.01500828936696053</v>
+        <v>0.02372065931558609</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.006469832267612219</v>
+        <v>0.03561581671237946</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.007001084741204977</v>
+        <v>0.0215122252702713</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0216234102845192</v>
+        <v>0.05942504853010178</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.002166565274819732</v>
+        <v>0.06041119247674942</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.02038868144154549</v>
+        <v>0.07611170411109924</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.01133568026125431</v>
+        <v>0.02044665813446045</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.04588595777750015</v>
+        <v>0.03640715032815933</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0249955803155899</v>
+        <v>0.08895132690668106</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.03161609545350075</v>
+        <v>0.1270881593227386</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.00968948844820261</v>
+        <v>0.06088782846927643</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.000787016237154603</v>
+        <v>0.1704387366771698</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.01776219345629215</v>
+        <v>0.07000494748353958</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.02437834069132805</v>
+        <v>0.04021414369344711</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.07485095411539078</v>
+        <v>0.0529526025056839</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0246632844209671</v>
+        <v>0.02153968065977097</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.04128177464008331</v>
+        <v>0.007904341444373131</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.008408919908106327</v>
+        <v>0.05021362751722336</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.005771308206021786</v>
+        <v>0.03629007935523987</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.04263920336961746</v>
+        <v>0.002548801712691784</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.003787034656852484</v>
+        <v>0.04557998105883598</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02197684347629547</v>
+        <v>0.08267185091972351</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.008786160498857498</v>
+        <v>0.0681847482919693</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.04113742709159851</v>
+        <v>0.1018497720360756</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.007534596603363752</v>
+        <v>0.0055819321423769</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01807788573205471</v>
+        <v>0.02041137591004372</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.006313454359769821</v>
+        <v>0.003548723179847002</v>
       </c>
     </row>
     <row r="3">
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.07801054418087006</v>
+        <v>0.0002478035748936236</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08574885874986649</v>
+        <v>0.005808106623589993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08492299914360046</v>
+        <v>0.001235956908203661</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05403978750109673</v>
+        <v>0.002113586291670799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1229471266269684</v>
+        <v>0.008459917269647121</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1908375322818756</v>
+        <v>0.002439242321997881</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05312938243150711</v>
+        <v>0.0007450926350429654</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1384083926677704</v>
+        <v>0.0008266164222732186</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09043155610561371</v>
+        <v>0.001397200161591172</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0759146437048912</v>
+        <v>0.000785685027949512</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06669443100690842</v>
+        <v>0.003931000828742981</v>
       </c>
       <c r="L4" t="n">
-        <v>0.137701153755188</v>
+        <v>0.0005092821083962917</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03915689885616302</v>
+        <v>0.001783257233910263</v>
       </c>
       <c r="N4" t="n">
-        <v>0.09145645797252655</v>
+        <v>0.007511736359447241</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1588730812072754</v>
+        <v>0.003062456613406539</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05232668668031693</v>
+        <v>0.001305756741203368</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1334845721721649</v>
+        <v>0.0002350962313357741</v>
       </c>
       <c r="R4" t="n">
-        <v>0.133120208978653</v>
+        <v>0.001307509373873472</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05128292739391327</v>
+        <v>0.0001882693031802773</v>
       </c>
       <c r="T4" t="n">
-        <v>0.017543014138937</v>
+        <v>0.001641867798753083</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01542529929429293</v>
+        <v>0.0002801310329232365</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04865690693259239</v>
+        <v>8.57541526784189e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03142240643501282</v>
+        <v>0.0002249083336209878</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06494451314210892</v>
+        <v>0.001964723924174905</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.00139057484921068</v>
+        <v>0.0004494498134590685</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01067424938082695</v>
+        <v>0.000185780692845583</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02197565883398056</v>
+        <v>0.0002546929463278502</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.03595223277807236</v>
+        <v>6.468227365985513e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.004471311345696449</v>
+        <v>0.001085739582777023</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0287724956870079</v>
+        <v>0.0006033367244526744</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.03855933994054794</v>
+        <v>0.0004840200999751687</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.003900706768035889</v>
+        <v>0.0005700185429304838</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.05016586557030678</v>
+        <v>0.001092933584004641</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.03423191606998444</v>
+        <v>0.000870496965944767</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0002159653231501579</v>
+        <v>0.0007571254391223192</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.04189299046993256</v>
+        <v>0.000156490714289248</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.02352777682244778</v>
+        <v>0.0002256108273286372</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.06484100222587585</v>
+        <v>0.001821270561777055</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.06251803040504456</v>
+        <v>0.0004945353139191866</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.005058289039880037</v>
+        <v>0.000602812971919775</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.04525725543498993</v>
+        <v>1.884462471934967e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.01945954747498035</v>
+        <v>0.0004947695997543633</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.001596940215677023</v>
+        <v>0.0004460255149751902</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.008067579008638859</v>
+        <v>0.0003847689367830753</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0008574918610975146</v>
+        <v>0.0004614118079189211</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.02863259986042976</v>
+        <v>0.0007784877670928836</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.03475331887602806</v>
+        <v>0.004668400157243013</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1023116484284401</v>
+        <v>0.0006736842915415764</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.05436398088932037</v>
+        <v>3.044464392587543e-06</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02629420906305313</v>
+        <v>0.003337404690682888</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1523119807243347</v>
+        <v>0.001810718211345375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.02703172713518143</v>
+        <v>0.001366237294860184</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1148207783699036</v>
+        <v>0.0003203331143595278</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.05449780076742172</v>
+        <v>0.0004616287769749761</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.005289112217724323</v>
+        <v>0.0007674271473661065</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.04991328716278076</v>
+        <v>0.0004400843172334135</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.02626089751720428</v>
+        <v>0.0004322709864936769</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.041111059486866</v>
+        <v>0.00137634202837944</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0738760232925415</v>
+        <v>0.005046256817877293</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.004152342677116394</v>
+        <v>0.0006206084508448839</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01641236245632172</v>
+        <v>0.001494952826760709</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.01664533838629723</v>
+        <v>0.0003076858120039105</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.007575774565339088</v>
+        <v>0.00177838874515146</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.01992343366146088</v>
+        <v>0.0006988664390519261</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0291982926428318</v>
+        <v>0.0009676717454567552</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0776754766702652</v>
+        <v>0.0004126616986468434</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.017889603972435</v>
+        <v>0.0002193761611124501</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.06378784030675888</v>
+        <v>0.001011722953990102</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.01626855880022049</v>
+        <v>0.001039233990013599</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.00956396758556366</v>
+        <v>0.001244060229510069</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.003958217799663544</v>
+        <v>0.0004820781759917736</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.01399889960885048</v>
+        <v>1.502607483416796e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.06096835061907768</v>
+        <v>0.0006646168185397983</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.02520572207868099</v>
+        <v>0.002957914024591446</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.03132314234972</v>
+        <v>0.001596714835613966</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.02377950958907604</v>
+        <v>0.0005440629902295768</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.07169026136398315</v>
+        <v>0.002054483164101839</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.04867082461714745</v>
+        <v>0.000699895725119859</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.004110453184694052</v>
+        <v>0.0005781951476819813</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.08668304234743118</v>
+        <v>0.0001301343727391213</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.03335290402173996</v>
+        <v>0.0001002478384179994</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0117951026186347</v>
+        <v>4.780013114213943e-06</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.06771393865346909</v>
+        <v>0.0008941173437051475</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02840216457843781</v>
+        <v>2.880372448998969e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.03250280767679214</v>
+        <v>0.000552453740965575</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01571804657578468</v>
+        <v>0.0009811641648411751</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.03684194758534431</v>
+        <v>0.0006287097348831594</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.01001949980854988</v>
+        <v>0.0006174924783408642</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.02099701389670372</v>
+        <v>5.448608135338873e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.008235989138484001</v>
+        <v>3.070371167268604e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.01667465642094612</v>
+        <v>0.001029656152240932</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.07752044498920441</v>
+        <v>0.0001898882183013484</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.05673565715551376</v>
+        <v>6.944088090676814e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.01939796842634678</v>
+        <v>0.0008849374135024846</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.1108559817075729</v>
+        <v>0.001228167209774256</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.01054472289979458</v>
+        <v>0.0001682357833487913</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.04250556975603104</v>
+        <v>0.001315272878855467</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.02493172138929367</v>
+        <v>0.001541833393275738</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.06637585908174515</v>
+        <v>0.0005294486181810498</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.01510166935622692</v>
+        <v>5.290409899316728e-05</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.07725321501493454</v>
+        <v>0.000440270610852167</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.03571648523211479</v>
+        <v>0.0001867994869826362</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.02463803440332413</v>
+        <v>0.0007058125920593739</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.03350825607776642</v>
+        <v>0.001003247685730457</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.03880050033330917</v>
+        <v>0.000836182211060077</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.00545185524970293</v>
+        <v>0.000387585605494678</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.02731072530150414</v>
+        <v>0.0002483076532371342</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.002925186883658171</v>
+        <v>0.0002808246063068509</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.04940073192119598</v>
+        <v>0.001004091114737093</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.02300483547151089</v>
+        <v>0.001059341710060835</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.04441035911440849</v>
+        <v>6.027744530001655e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.03320646286010742</v>
+        <v>0.00106123392470181</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0237448625266552</v>
+        <v>0.0006901996675878763</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.06394647061824799</v>
+        <v>0.0002685062354430556</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.008895689621567726</v>
+        <v>0.001180710853077471</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.02155215106904507</v>
+        <v>0.0005765164969488978</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.08464591950178146</v>
+        <v>0.001233188784681261</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.03161365538835526</v>
+        <v>7.751304656267166e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.03401142731308937</v>
+        <v>5.279688048176467e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.04050257056951523</v>
+        <v>0.0002089474292006344</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.03062246739864349</v>
+        <v>0.001601597759872675</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.03739137947559357</v>
+        <v>0.0001571292523294687</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.06109360605478287</v>
+        <v>0.001592054381035268</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.01617887988686562</v>
+        <v>0.0009383888682350516</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.001280002295970917</v>
+        <v>0.0003498286241665483</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.02430133521556854</v>
+        <v>0.0002149021020159125</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0116067910566926</v>
+        <v>1.014580629998818e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.01370028126984835</v>
+        <v>0.000130825734231621</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.01590359024703503</v>
+        <v>0.0006775489309802651</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.008277389220893383</v>
+        <v>0.00105767697095871</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.02024554461240768</v>
+        <v>0.000690933782607317</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.01083542592823505</v>
+        <v>0.0005341256037354469</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.01469173654913902</v>
+        <v>0.0004896789323538542</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.006252583116292953</v>
+        <v>0.00019646534929052</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.02062701433897018</v>
+        <v>0.0004087289271410555</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.02321707829833031</v>
+        <v>0.0004765365738421679</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.082085020840168</v>
+        <v>0.0005745437811128795</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01431636046618223</v>
+        <v>4.407097367220558e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.022622000426054</v>
+        <v>0.0003651062725111842</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.03053742088377476</v>
+        <v>0.001298334100283682</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.01263099256902933</v>
+        <v>0.0002904750872403383</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.00106116640381515</v>
+        <v>0.0008355429163202643</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.005738739855587482</v>
+        <v>6.242937524802983e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.000134885311126709</v>
+        <v>0.0004373386909719557</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0226072259247303</v>
+        <v>0.0002325428067706525</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.05366702377796173</v>
+        <v>0.0004473466251511127</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.06050753220915794</v>
+        <v>0.0009531775140203536</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.02429606392979622</v>
+        <v>0.000726081314496696</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0166465025395155</v>
+        <v>0.0006171650602482259</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.007200716063380241</v>
+        <v>0.001369691919535398</v>
       </c>
       <c r="EU4" t="n">
-        <v>6.309710443019867e-06</v>
+        <v>0.0001250973728019744</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.01163263898342848</v>
+        <v>0.0007211423944681883</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.00112620647996664</v>
+        <v>0.0004810002574231476</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.01574172452092171</v>
+        <v>0.0001218630204675719</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.06505827605724335</v>
+        <v>0.0004607573209796101</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.04331132024526596</v>
+        <v>2.20192814595066e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.03622569143772125</v>
+        <v>0.0008021427784115076</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02959570847451687</v>
+        <v>0.0008995046373456717</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.04419282078742981</v>
+        <v>0.0008509288891218603</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.006203946191817522</v>
+        <v>0.0005950480699539185</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.02326373569667339</v>
+        <v>4.663377330871299e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.001113649923354387</v>
+        <v>0.0001233627262990922</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.002241869922727346</v>
+        <v>0.0002864249981939793</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.05498417839407921</v>
+        <v>0.0008989029447548091</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.004927941597998142</v>
+        <v>0.000749919330701232</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.03954054787755013</v>
+        <v>0.001562897581607103</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01097697764635086</v>
+        <v>2.803066308842972e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.003185546025633812</v>
+        <v>0.0002046012668870389</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.02324764989316463</v>
+        <v>0.001034646993502975</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.04994671046733856</v>
+        <v>0.0007653674692846835</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.004244551062583923</v>
+        <v>0.0008961115963757038</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.007941863499581814</v>
+        <v>0.0005175592959858477</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.01780111715197563</v>
+        <v>0.001830282155424356</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.01610018685460091</v>
+        <v>0.0005412268219515681</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.01497305184602737</v>
+        <v>0.002172750886529684</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.08141115307807922</v>
+        <v>0.0001320422161370516</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.1052219942212105</v>
+        <v>0.0003620662610046566</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.01093615218997002</v>
+        <v>0.0008885777788236737</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.08466202020645142</v>
+        <v>0.000322145817335695</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.01928668096661568</v>
+        <v>0.0003805567394010723</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.001601263415068388</v>
+        <v>0.0005831597372889519</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.01114755868911743</v>
+        <v>3.916992136510089e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0284732747823</v>
+        <v>0.001132745412178338</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.04991599172353745</v>
+        <v>0.0006462712772190571</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.01100599579513073</v>
+        <v>0.0006990599795244634</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.03380150347948074</v>
+        <v>0.0006751207401975989</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.003852997906506062</v>
+        <v>0.001105461618863046</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.01212951168417931</v>
+        <v>0.0001314391265623271</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0070121088065207</v>
+        <v>0.001068950863555074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004822663031518459</v>
+        <v>0.004803136456757784</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03764922171831131</v>
+        <v>0.04361432418227196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01189070474356413</v>
+        <v>0.0008509906474500895</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01395632047206163</v>
+        <v>0.01704936847090721</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03832200914621353</v>
+        <v>0.03215239942073822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06693019717931747</v>
+        <v>0.01957856304943562</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02018037997186184</v>
+        <v>0.0003301253891550004</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02392485737800598</v>
+        <v>0.004174097441136837</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006210138089954853</v>
+        <v>0.01495240442454815</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0025697429664433</v>
+        <v>0.002516728127375245</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02324261516332626</v>
+        <v>0.04061781987547874</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008179210126399994</v>
+        <v>0.0009414858650416136</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00393377710133791</v>
+        <v>0.01145084761083126</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001408278942108154</v>
+        <v>0.0173882357776165</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04838096350431442</v>
+        <v>0.001351742073893547</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02929051220417023</v>
+        <v>0.0004573669284582138</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0242560226470232</v>
+        <v>0.005372557323426008</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006645042449235916</v>
+        <v>0.007503869477659464</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01721017062664032</v>
+        <v>0.002422972116619349</v>
       </c>
       <c r="T5" t="n">
-        <v>0.003178744111210108</v>
+        <v>0.004105490166693926</v>
       </c>
       <c r="U5" t="n">
-        <v>0.003710061544552445</v>
+        <v>0.004410544410347939</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01691462285816669</v>
+        <v>0.003437021048739552</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01495967898517847</v>
+        <v>0.009588848799467087</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005136465653777122</v>
+        <v>0.0004664668813347816</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.006031346973031759</v>
+        <v>0.003279224038124084</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.008507156744599342</v>
+        <v>0.004286324139684439</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02003965154290199</v>
+        <v>0.001081835944205523</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01805252581834793</v>
+        <v>0.005659165326505899</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01903474889695644</v>
+        <v>0.005163409281522036</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001152395852841437</v>
+        <v>0.007746493443846703</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.002924412488937378</v>
+        <v>0.002622566651552916</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01742850616574287</v>
+        <v>0.006642768159508705</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.01296243909746408</v>
+        <v>0.003643987933173776</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.007550917565822601</v>
+        <v>0.001485739951021969</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0336526446044445</v>
+        <v>0.008663799613714218</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0002984399907290936</v>
+        <v>0.005689719691872597</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.008873354643583298</v>
+        <v>0.007740095723420382</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0002800851361826062</v>
+        <v>0.00660631712526083</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.01373402401804924</v>
+        <v>0.005512486211955547</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.01349335629492998</v>
+        <v>0.006229295395314693</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01421427633613348</v>
+        <v>0.006332383025437593</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.00835223775357008</v>
+        <v>0.007358799688518047</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.003431688062846661</v>
+        <v>0.003839748213067651</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.007660303730517626</v>
+        <v>0.007366835605353117</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.008654287084937096</v>
+        <v>0.000957460782956332</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.01135465875267982</v>
+        <v>0.001713092089630663</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.000602445041295141</v>
+        <v>0.02337165549397469</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.02159867435693741</v>
+        <v>0.003640915500000119</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.01350241433829069</v>
+        <v>0.01738225109875202</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.02314545400440693</v>
+        <v>0.03028793819248676</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.03326965123414993</v>
+        <v>0.01450343523174524</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.02967677265405655</v>
+        <v>0.01086445711553097</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.004165313672274351</v>
+        <v>0.0172124095261097</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.002190986648201942</v>
+        <v>0.001064001116901636</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01257194858044386</v>
+        <v>0.007663638330996037</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.03152292966842651</v>
+        <v>0.00849311426281929</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.006791825871914625</v>
+        <v>0.003151040058583021</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.009515989571809769</v>
+        <v>0.001872660242952406</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01500793732702732</v>
+        <v>0.001498052850365639</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.00233295070938766</v>
+        <v>0.01016920153051615</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.04420747607946396</v>
+        <v>0.001012688037008047</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.003436981001868844</v>
+        <v>0.008827216923236847</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.001590513973496854</v>
+        <v>0.01350681856274605</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.006826916243880987</v>
+        <v>0.0106610432267189</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01793566346168518</v>
+        <v>0.004275843501091003</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0005398168577812612</v>
+        <v>0.008371321484446526</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.00214574346318841</v>
+        <v>0.01675086468458176</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01949978806078434</v>
+        <v>0.004734055604785681</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.02078491076827049</v>
+        <v>0.0001759715378284454</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.01049257349222898</v>
+        <v>0.001828819047659636</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.006118118297308683</v>
+        <v>0.002800753805786371</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.01824005506932735</v>
+        <v>0.005098513327538967</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.004630044102668762</v>
+        <v>0.007649848703294992</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.009818380698561668</v>
+        <v>0.02074018493294716</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.003240719903260469</v>
+        <v>0.002025779336690903</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.009016276337206364</v>
+        <v>0.01631029509007931</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0494762659072876</v>
+        <v>0.01637838780879974</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.04926548153162003</v>
+        <v>0.001447863411158323</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.03418000787496567</v>
+        <v>0.0002280161716043949</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.02539771422743797</v>
+        <v>0.005086856428533792</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0005062437849119306</v>
+        <v>0.001180661842226982</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.008109075948596001</v>
+        <v>0.002684720559045672</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0005131436046212912</v>
+        <v>0.002520229201763868</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.001872519496828318</v>
+        <v>0.0007683181902393699</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.01326154358685017</v>
+        <v>0.001059911912307143</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.003399396548047662</v>
+        <v>0.003842648817226291</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.008775832131505013</v>
+        <v>0.002685466082766652</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.003012712579220533</v>
+        <v>0.0009998839814215899</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.001922751544043422</v>
+        <v>0.001072644721716642</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.006549852434545755</v>
+        <v>0.001846327679231763</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.006918427068740129</v>
+        <v>0.008302508853375912</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01148583553731441</v>
+        <v>0.006836431566625834</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.01403626892715693</v>
+        <v>0.004955760203301907</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.003520772559568286</v>
+        <v>0.01066792849451303</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.005117879249155521</v>
+        <v>0.002265059854835272</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.005916497204452753</v>
+        <v>0.01111826114356518</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.01552584394812584</v>
+        <v>0.01234683580696583</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001948541845194995</v>
+        <v>0.002031429903581738</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01379357557743788</v>
+        <v>0.002520925365388393</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.00837410893291235</v>
+        <v>0.0004531653830781579</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0003545531071722507</v>
+        <v>0.005228113848716021</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.001556269591674209</v>
+        <v>0.0002628255169838667</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01582406461238861</v>
+        <v>0.0009385384037159383</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.005922661162912846</v>
+        <v>0.007062072865664959</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.006804071832448244</v>
+        <v>0.005118939559906721</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.000789253506809473</v>
+        <v>0.0003782367566600442</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0005520543199963868</v>
+        <v>0.002376215998083353</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.01007246319204569</v>
+        <v>0.001197567326016724</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.05203589051961899</v>
+        <v>0.003500722348690033</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.02539240382611752</v>
+        <v>0.01440755091607571</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.01985077746212482</v>
+        <v>0.00426251906901598</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.02122589200735092</v>
+        <v>0.006451386958360672</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.005993867293000221</v>
+        <v>0.002781233517453074</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0007937727496027946</v>
+        <v>0.004583647008985281</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01212482713162899</v>
+        <v>0.005583569407463074</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.00430414080619812</v>
+        <v>0.009972834959626198</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.01272693555802107</v>
+        <v>0.0003464699257165194</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.03149091824889183</v>
+        <v>0.003193981712684035</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.004659387748688459</v>
+        <v>0.01267795357853174</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.008500539697706699</v>
+        <v>0.01323436759412289</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.006123775616288185</v>
+        <v>0.01151656359434128</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.01240154448896646</v>
+        <v>0.004522019997239113</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.008848159573972225</v>
+        <v>0.01140048541128635</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.003170575015246868</v>
+        <v>0.002276596380397677</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.02066764608025551</v>
+        <v>0.0005199764855206013</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.006472361274063587</v>
+        <v>0.006188212893903255</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.009207564406096935</v>
+        <v>0.001304875244386494</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.003347675083205104</v>
+        <v>0.002981320954859257</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.01645142212510109</v>
+        <v>0.003103039460256696</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0114413034170866</v>
+        <v>0.004116601776331663</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.003884570440277457</v>
+        <v>0.01183981541544199</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.003704622155055404</v>
+        <v>0.001880671130493283</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.008961138315498829</v>
+        <v>0.0002985442406497896</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.01016997452825308</v>
+        <v>0.001680364250205457</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.008950015529990196</v>
+        <v>0.001099892891943455</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.001035836292430758</v>
+        <v>0.001503314473666251</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.01258513331413269</v>
+        <v>0.001476570381782949</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.01472014095634222</v>
+        <v>0.003263507271185517</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.005941099021583796</v>
+        <v>0.004548790398985147</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01198825985193253</v>
+        <v>0.001955967396497726</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.009616753086447716</v>
+        <v>0.01187621988356113</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.007788385730236769</v>
+        <v>2.760114148259163e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.01532631739974022</v>
+        <v>0.001520815421827137</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.01845448836684227</v>
+        <v>0.0006218015914782882</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.002231047488749027</v>
+        <v>0.002065693028271198</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.008298434317111969</v>
+        <v>0.003146421862766147</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.005693417973816395</v>
+        <v>0.005703654140233994</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.005354191642254591</v>
+        <v>0.001400515204295516</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.009339162148535252</v>
+        <v>0.009317701682448387</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.003145962953567505</v>
+        <v>0.02045193500816822</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.001156097277998924</v>
+        <v>0.007248984649777412</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.005938034038990736</v>
+        <v>0.01093590911477804</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.007026659324765205</v>
+        <v>0.003482030471786857</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.006026933901011944</v>
+        <v>0.001250039436854422</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001000749412924051</v>
+        <v>0.003123471280559897</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.001918669091537595</v>
+        <v>0.001483140280470252</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.009091821499168873</v>
+        <v>0.001898232148960233</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0112055204808712</v>
+        <v>0.003245552070438862</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.009000172838568687</v>
+        <v>0.004162751603871584</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.001011391868814826</v>
+        <v>0.002576461993157864</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0007997438660822809</v>
+        <v>0.000665988540276885</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.008737755939364433</v>
+        <v>0.0006412486545741558</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.01089400332421064</v>
+        <v>0.002670965623110533</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.003647627774626017</v>
+        <v>0.003520167898386717</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.00642115855589509</v>
+        <v>0.008503441698849201</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.007538700010627508</v>
+        <v>0.003961936570703983</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.006001776084303856</v>
+        <v>0.01009442936629057</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01814908906817436</v>
+        <v>0.009506842121481895</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.02065245993435383</v>
+        <v>0.004568473435938358</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.009697197005152702</v>
+        <v>0.0004722191952168941</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.003464901354163885</v>
+        <v>0.002750318730250001</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.001104710390791297</v>
+        <v>0.007115249987691641</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.007825912907719612</v>
+        <v>0.0204017236828804</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001601038500666618</v>
+        <v>0.001251050271093845</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.01240658666938543</v>
+        <v>0.0195614080876112</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.02456969954073429</v>
+        <v>0.01441361755132675</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.02727206982672215</v>
+        <v>0.007124067284166813</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.02386852912604809</v>
+        <v>0.01113823801279068</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.004989131353795528</v>
+        <v>0.005282262340188026</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.01206618174910545</v>
+        <v>0.008350256830453873</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.02896962314844131</v>
+        <v>0.0004471386782824993</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.000575516140088439</v>
+        <v>0.003637646557763219</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.009839302860200405</v>
+        <v>0.0001173483906313777</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.01593950763344765</v>
+        <v>0.007200871594250202</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.005566912703216076</v>
+        <v>0.01513841934502125</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.001495066215284169</v>
+        <v>0.0005992957740090787</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.001926369965076447</v>
+        <v>0.009363690391182899</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01133046019822359</v>
+        <v>0.009927686303853989</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.005834565497934818</v>
+        <v>0.0006716297939419746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0235145166516304</v>
+        <v>0.03739335760474205</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1347717344760895</v>
+        <v>0.2699053883552551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0315873846411705</v>
+        <v>0.0226933341473341</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06714962422847748</v>
+        <v>0.1341632306575775</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006319280713796616</v>
+        <v>0.06383249908685684</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02380611002445221</v>
+        <v>0.00374957243911922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03093648329377174</v>
+        <v>0.001608948921784759</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02410349622368813</v>
+        <v>0.03185800090432167</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001688126940280199</v>
+        <v>0.02107728645205498</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002820867579430342</v>
+        <v>0.002915218472480774</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1224189475178719</v>
+        <v>0.2317856997251511</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007397930137813091</v>
+        <v>0.007817814126610756</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06975354254245758</v>
+        <v>0.1442780494689941</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01057889126241207</v>
+        <v>0.1063307002186775</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0003996239975094795</v>
+        <v>0.0191972553730011</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0418936051428318</v>
+        <v>0.01713139750063419</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02827510610222816</v>
+        <v>0.05548355728387833</v>
       </c>
       <c r="R6" t="n">
-        <v>0.006809450220316648</v>
+        <v>0.01335503347218037</v>
       </c>
       <c r="S6" t="n">
-        <v>0.003278836142271757</v>
+        <v>0.02904696390032768</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004527672659605742</v>
+        <v>0.0292273722589016</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007645653560757637</v>
+        <v>0.03904701396822929</v>
       </c>
       <c r="V6" t="n">
-        <v>0.006920886691659689</v>
+        <v>0.02420481480658054</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05319543555378914</v>
+        <v>0.04170496761798859</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0001574696652824059</v>
+        <v>0.04271496087312698</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01390558946877718</v>
+        <v>0.03512229770421982</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02823800779879093</v>
+        <v>0.0171828381717205</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01750082708895206</v>
+        <v>0.01693186908960342</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01760445162653923</v>
+        <v>0.04324797540903091</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0250293780118227</v>
+        <v>0.07255533337593079</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.04379523545503616</v>
+        <v>0.0249812975525856</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01307838596403599</v>
+        <v>0.001640852075070143</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01113924570381641</v>
+        <v>0.0070030577480793</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.00843478087335825</v>
+        <v>0.02338666468858719</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02642808109521866</v>
+        <v>0.002412555739283562</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.01384195871651173</v>
+        <v>0.02444207295775414</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.006633791141211987</v>
+        <v>0.000859494786709547</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03532302379608154</v>
+        <v>0.01137528102844954</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.03245522454380989</v>
+        <v>0.005373027175664902</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.008098108693957329</v>
+        <v>0.01558470726013184</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.004014513455331326</v>
+        <v>0.004677766934037209</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.008049382828176022</v>
+        <v>0.03686335682868958</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.01661262474954128</v>
+        <v>0.02859924733638763</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0007580439560115337</v>
+        <v>0.02374360710382462</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.00663003558292985</v>
+        <v>0.005920925177633762</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.01486441679298878</v>
+        <v>0.009175547398626804</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.04539776593446732</v>
+        <v>0.006585287861526012</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.106977291405201</v>
+        <v>0.1963585615158081</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.01950653642416</v>
+        <v>0.03618905693292618</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.009769093245267868</v>
+        <v>0.07186870276927948</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.007602740079164505</v>
+        <v>0.005177953746169806</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.001667364616878331</v>
+        <v>0.01951982639729977</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.01026317197829485</v>
+        <v>0.03682732209563255</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.02533172443509102</v>
+        <v>0.06606008857488632</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.005985719617456198</v>
+        <v>0.03903220966458321</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.002721552271395922</v>
+        <v>0.05615414679050446</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01634793542325497</v>
+        <v>0.07816268503665924</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.006109717767685652</v>
+        <v>0.07433780282735825</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.01165842823684216</v>
+        <v>0.02291721850633621</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.003087578341364861</v>
+        <v>0.03325532749295235</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.0007989276200532913</v>
+        <v>0.06172941625118256</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0307923536747694</v>
+        <v>0.03389301151037216</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.0205631572753191</v>
+        <v>0.004035657271742821</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.02262073010206223</v>
+        <v>0.003039813600480556</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.004994221962988377</v>
+        <v>0.06414052844047546</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.01179615966975689</v>
+        <v>0.04391572251915932</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0003160667838528752</v>
+        <v>0.03938494250178337</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.002383016981184483</v>
+        <v>0.02218742109835148</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.002007105387747288</v>
+        <v>0.05838710069656372</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.01277922093868256</v>
+        <v>0.02304988726973534</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.0113739650696516</v>
+        <v>0.0472339391708374</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.002046492416411638</v>
+        <v>0.005519561469554901</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.002623824868351221</v>
+        <v>0.004677197895944118</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.04377146437764168</v>
+        <v>0.02013921365141869</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.05414453148841858</v>
+        <v>0.0958559513092041</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.01200333330780268</v>
+        <v>0.02572966739535332</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.02297024801373482</v>
+        <v>0.0133372126147151</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.03871552646160126</v>
+        <v>0.04406241327524185</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.001887425314635038</v>
+        <v>0.05854186043143272</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.003208682872354984</v>
+        <v>0.008055167272686958</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.01003175135701895</v>
+        <v>0.03130717575550079</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.008371210657060146</v>
+        <v>0.0226663202047348</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.01157922111451626</v>
+        <v>0.003373432904481888</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03433823585510254</v>
+        <v>0.03816709294915199</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.005832348950207233</v>
+        <v>0.001087659038603306</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.0106524396687746</v>
+        <v>0.01498901285231113</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.008705943822860718</v>
+        <v>0.0001346633653156459</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.00292104808613658</v>
+        <v>0.004192755091935396</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.009276424534618855</v>
+        <v>0.003785870037972927</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.00749137019738555</v>
+        <v>0.0003243410028517246</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.001270344364456832</v>
+        <v>0.0125734880566597</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.005597040988504887</v>
+        <v>0.05212254822254181</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.04469913244247437</v>
+        <v>0.05841996520757675</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.008884180337190628</v>
+        <v>0.01527481526136398</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.01353315357118845</v>
+        <v>0.02463505789637566</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.06570769101381302</v>
+        <v>0.0757296234369278</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.0336935892701149</v>
+        <v>0.00576789490878582</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.01432633772492409</v>
+        <v>0.01031570043414831</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.006380912382155657</v>
+        <v>0.05734725669026375</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.01589272730052471</v>
+        <v>0.01311134919524193</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.01144929882138968</v>
+        <v>0.007050676736980677</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03569260239601135</v>
+        <v>0.03620037063956261</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.000103502650745213</v>
+        <v>0.01611388102173805</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.01372786238789558</v>
+        <v>0.01874595880508423</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01130819041281939</v>
+        <v>0.001449470175430179</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.0004485682584345341</v>
+        <v>0.002572877798229456</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.009439042769372463</v>
+        <v>0.004265828058123589</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.005987300537526608</v>
+        <v>0.01099217589944601</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.003959385212510824</v>
+        <v>0.01091180276125669</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.01060323789715767</v>
+        <v>0.06017819046974182</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.05778510496020317</v>
+        <v>0.01964991539716721</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.0116927707567811</v>
+        <v>0.03306761011481285</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.0177941620349884</v>
+        <v>0.1482735723257065</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01090741716325283</v>
+        <v>0.05334562435746193</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.02475799433887005</v>
+        <v>0.03982315957546234</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01168948598206043</v>
+        <v>0.002729838714003563</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.03635132312774658</v>
+        <v>0.03377054631710052</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.007343502715229988</v>
+        <v>0.003731064032763243</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.01698947325348854</v>
+        <v>0.0069866175763309</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.006372938398271799</v>
+        <v>0.0120445815846324</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.005366279277950525</v>
+        <v>0.02036822773516178</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.004933132790029049</v>
+        <v>0.03741003945469856</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.02140852063894272</v>
+        <v>0.03144824877381325</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.01715066097676754</v>
+        <v>0.01585610397160053</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.01241718418896198</v>
+        <v>0.01341837365180254</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.004079697653651237</v>
+        <v>0.006315264385193586</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01246647629886866</v>
+        <v>0.01430458016693592</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.01168417185544968</v>
+        <v>0.02335991337895393</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0331268385052681</v>
+        <v>0.08018127828836441</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.006315538659691811</v>
+        <v>0.03390006348490715</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.008173112757503986</v>
+        <v>0.04556626081466675</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.01453768089413643</v>
+        <v>0.03749961033463478</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.001337479101493955</v>
+        <v>0.05383412912487984</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.01743911765515804</v>
+        <v>0.01100247912108898</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.01920142397284508</v>
+        <v>0.007617129012942314</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.001145137473940849</v>
+        <v>0.002155407099053264</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.01625874266028404</v>
+        <v>0.02182621695101261</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03238743916153908</v>
+        <v>0.01978726498782635</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.002121190540492535</v>
+        <v>0.001862486591562629</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.01682835258543491</v>
+        <v>0.03583057969808578</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.01363419275730848</v>
+        <v>0.05469483882188797</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.008900129236280918</v>
+        <v>0.02610488422214985</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.0147419273853302</v>
+        <v>0.002312755212187767</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.001605859841220081</v>
+        <v>0.009766311384737492</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.0182906948029995</v>
+        <v>0.01523220632225275</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.00476132845506072</v>
+        <v>0.009277178905904293</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.02085375785827637</v>
+        <v>0.03935408964753151</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.01608158648014069</v>
+        <v>0.01116442028433084</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.001622824231162667</v>
+        <v>0.001968850381672382</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.003546497551724315</v>
+        <v>0.009736549109220505</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.009286090731620789</v>
+        <v>0.04861209541559219</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.002341537736356258</v>
+        <v>0.03167795762419701</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.01847716420888901</v>
+        <v>0.02325346693396568</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.01418503653258085</v>
+        <v>0.0003434000536799431</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.007548385299742222</v>
+        <v>0.009830097667872906</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.03189361095428467</v>
+        <v>0.03705548495054245</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.0009621448116376996</v>
+        <v>0.001731670461595058</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.0125953508540988</v>
+        <v>0.014711057767272</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01120475307106972</v>
+        <v>0.01737057790160179</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.001823239726945758</v>
+        <v>0.01332392264157534</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.012474674731493</v>
+        <v>0.009897897019982338</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.005668635480105877</v>
+        <v>0.008658880367875099</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.004181148484349251</v>
+        <v>0.01402711775153875</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.004558857530355453</v>
+        <v>0.000245245813857764</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.00688803568482399</v>
+        <v>0.05500026047229767</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.007643943652510643</v>
+        <v>0.03148240596055984</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.01882537826895714</v>
+        <v>0.007552764844149351</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.01249600574374199</v>
+        <v>0.02947556972503662</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.005809328984469175</v>
+        <v>0.01140993926674128</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.02032694593071938</v>
+        <v>0.04638155549764633</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.009235336445271969</v>
+        <v>0.01973504200577736</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.02537686191499233</v>
+        <v>0.002449026331305504</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.01766353473067284</v>
+        <v>0.03325269371271133</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.01642972975969315</v>
+        <v>0.07451040297746658</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.01056747138500214</v>
+        <v>0.006737147457897663</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.001855053938925266</v>
+        <v>0.04017270356416702</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.0133795328438282</v>
+        <v>0.07214812934398651</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.00842637475579977</v>
+        <v>0.04737302660942078</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.004488964565098286</v>
+        <v>0.02110054902732372</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.0297335758805275</v>
+        <v>0.01825692132115364</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.01641400344669819</v>
+        <v>0.01022947020828724</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.02454488351941109</v>
+        <v>0.01001286134123802</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.01140921283513308</v>
+        <v>0.03881563618779182</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.04689428582787514</v>
+        <v>0.0192609503865242</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.01220274716615677</v>
+        <v>0.03351539745926857</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.004369765985757113</v>
+        <v>0.00090817641466856</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.005139690358191729</v>
+        <v>0.06213067471981049</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.01449870131909847</v>
+        <v>0.02621090784668922</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.01870401203632355</v>
+        <v>0.01169221848249435</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.01710357889533043</v>
+        <v>0.008877632208168507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2160275280475616</v>
+        <v>0.01859480701386929</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0806267261505127</v>
+        <v>0.003786544781178236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02801809273660183</v>
+        <v>0.005217570811510086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1947630643844604</v>
+        <v>0.006719207391142845</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02331266552209854</v>
+        <v>0.004000456072390079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02065415680408478</v>
+        <v>0.004997101612389088</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05228918045759201</v>
+        <v>0.002082758117467165</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01828761398792267</v>
+        <v>0.001485139015130699</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02020604163408279</v>
+        <v>7.373886182904243e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1916990280151367</v>
+        <v>0.01678964681923389</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04949240759015083</v>
+        <v>0.0008411011658608913</v>
       </c>
       <c r="L7" t="n">
-        <v>0.115510568022728</v>
+        <v>0.00594295421615243</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1756761521100998</v>
+        <v>0.0002914434298872948</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07270491123199463</v>
+        <v>0.004480548202991486</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06495483964681625</v>
+        <v>0.000225235620746389</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1066080629825592</v>
+        <v>0.001522232545539737</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05244981124997139</v>
+        <v>0.001410093740560114</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01122098788619041</v>
+        <v>0.001010480802506208</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01247193478047848</v>
+        <v>0.001776799792423844</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002149555832147598</v>
+        <v>0.003484271001070738</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0009872801601886749</v>
+        <v>0.001788571011275053</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02830119989812374</v>
+        <v>0.0002643991902004927</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04099609330296516</v>
+        <v>0.002770509105175734</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02514440566301346</v>
+        <v>0.0009206131799146533</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0145748108625412</v>
+        <v>0.0004132854810450226</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001313021639361978</v>
+        <v>0.002246114425361156</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.02382692880928516</v>
+        <v>0.0001099793371395208</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02585958689451218</v>
+        <v>0.001780954422429204</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01910831034183502</v>
+        <v>0.003577170195057988</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.04229683801531792</v>
+        <v>0.001969604985788465</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01855771616101265</v>
+        <v>0.002526284195482731</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02359276078641415</v>
+        <v>0.001786258537322283</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0104903019964695</v>
+        <v>0.0007564446423202753</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.01877772621810436</v>
+        <v>0.0007663870928809047</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.05340435728430748</v>
+        <v>0.002202934585511684</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.001516983029432595</v>
+        <v>0.001524775754660368</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.06733659654855728</v>
+        <v>0.002869895193725824</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0200702752918005</v>
+        <v>0.0006699452642351389</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.02764810621738434</v>
+        <v>0.001167363254353404</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.02837080135941505</v>
+        <v>0.002031943993642926</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01095313765108585</v>
+        <v>0.003200612030923367</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.02802584320306778</v>
+        <v>0.001717783743515611</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.00308043509721756</v>
+        <v>0.001406849245540798</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.04196110740303993</v>
+        <v>0.002824324415996671</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.009130236692726612</v>
+        <v>0.001063693314790726</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.09317927062511444</v>
+        <v>0.01145944837480783</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.05926976352930069</v>
+        <v>0.004371169488877058</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.02068251930177212</v>
+        <v>0.006561951246112585</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.09069184958934784</v>
+        <v>0.004429676569998264</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01025782246142626</v>
+        <v>0.00501065980643034</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0479617565870285</v>
+        <v>0.002302903216332197</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.02452909015119076</v>
+        <v>0.001371437916532159</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.03238356858491898</v>
+        <v>0.002981709083542228</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.003139299806207418</v>
+        <v>0.001964873401448131</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.07494673132896423</v>
+        <v>0.007419855333864689</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0456932969391346</v>
+        <v>0.009217415004968643</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.04614081606268883</v>
+        <v>0.0003175009042024612</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.04868325218558311</v>
+        <v>0.001314257038757205</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.02209074795246124</v>
+        <v>0.004424002952873707</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.009255987592041492</v>
+        <v>0.001683313632383943</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.03273700177669525</v>
+        <v>0.001379526569508016</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.08862432092428207</v>
+        <v>0.004267353098839521</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.01751904003322124</v>
+        <v>0.003734847996383905</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.01927676238119602</v>
+        <v>0.0004349427472334355</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.02830188721418381</v>
+        <v>0.003950595390051603</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.00259181996807456</v>
+        <v>0.000901879626326263</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.004572365432977676</v>
+        <v>0.001337006455287337</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.03171782568097115</v>
+        <v>0.000697410898283124</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.01336754951626062</v>
+        <v>0.001578093273565173</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.005975418724119663</v>
+        <v>0.001697345869615674</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.01812626793980598</v>
+        <v>0.001904424745589495</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.005178437568247318</v>
+        <v>0.00107720703817904</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.09779554605484009</v>
+        <v>0.004506704863160849</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.003917566500604153</v>
+        <v>0.0005398414214141667</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.04691075533628464</v>
+        <v>0.00223671505227685</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.05022160708904266</v>
+        <v>0.001141536980867386</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.02274806424975395</v>
+        <v>0.0004442537028808147</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.009360944852232933</v>
+        <v>0.0004402635095175356</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.01455930899828672</v>
+        <v>0.001221571583300829</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.01021856069564819</v>
+        <v>0.002340778475627303</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0382845476269722</v>
+        <v>0.001705627655610442</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.04305674880743027</v>
+        <v>0.00375156057998538</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.04793510213494301</v>
+        <v>0.001994071993976831</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01425722241401672</v>
+        <v>0.0002975031093228608</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.02834277600049973</v>
+        <v>0.0001421068009221926</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.004947609268128872</v>
+        <v>4.175302819930948e-05</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.006085430737584829</v>
+        <v>0.002509454032406211</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.01156156789511442</v>
+        <v>0.0002228505909442902</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01283005345612764</v>
+        <v>0.001864401157945395</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.01002277806401253</v>
+        <v>0.0002547103213146329</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0312485583126545</v>
+        <v>0.00431936327368021</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.006261055823415518</v>
+        <v>0.003446283983066678</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.002039407845586538</v>
+        <v>0.0004850420518778265</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0216350182890892</v>
+        <v>0.003038925118744373</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.1169087141752243</v>
+        <v>0.005414618644863367</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.08356739580631256</v>
+        <v>0.0007916099275462329</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.02570626698434353</v>
+        <v>0.003270076122134924</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.05415308475494385</v>
+        <v>0.004789199680089951</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.03021958097815514</v>
+        <v>0.001165695837698877</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.03390798345208168</v>
+        <v>0.003235361771658063</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.05095024406909943</v>
+        <v>0.002170246094465256</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02134580165147781</v>
+        <v>0.0005784877575933933</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.02259362488985062</v>
+        <v>0.0004950099973939359</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.01782063953578472</v>
+        <v>0.0006381505518220365</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01354718860238791</v>
+        <v>0.002224367344751954</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.01727110520005226</v>
+        <v>0.0004933223826810718</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.007705760188400745</v>
+        <v>0.001293498440645635</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.00949543621391058</v>
+        <v>0.0001610836770851165</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.008415186777710915</v>
+        <v>0.0007240416016429663</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.1034871712327003</v>
+        <v>0.005172550678253174</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03244371712207794</v>
+        <v>0.005782011896371841</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.001043813303112984</v>
+        <v>0.00719918729737401</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.03433668985962868</v>
+        <v>0.004943049978464842</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.02762584760785103</v>
+        <v>0.001885124598629773</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.03299468010663986</v>
+        <v>0.0002197102876380086</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.03575054183602333</v>
+        <v>0.006407205015420914</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.02213115803897381</v>
+        <v>0.00216430751606822</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.01470553036779165</v>
+        <v>0.002084808424115181</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.06137577444314957</v>
+        <v>0.0004916624748148024</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.02022301964461803</v>
+        <v>0.00145042478106916</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.01058364287018776</v>
+        <v>0.002091817790642381</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.004957629833370447</v>
+        <v>0.004232440143823624</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.03849742561578751</v>
+        <v>0.001558443647809327</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.006378455087542534</v>
+        <v>0.001615514396689832</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.001517909346148372</v>
+        <v>0.0007664142758585513</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.01224272139370441</v>
+        <v>0.002226756885647774</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.006842260248959064</v>
+        <v>0.002404116792604327</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.008293516933917999</v>
+        <v>0.001348817255347967</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.03909024596214294</v>
+        <v>0.0005616003763861954</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.00349916610866785</v>
+        <v>0.0006591855199076235</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01870774291455746</v>
+        <v>0.00121899601072073</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.04823976382613182</v>
+        <v>0.0008926121518015862</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.03561078384518623</v>
+        <v>0.0004011275013908744</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.02320252545177937</v>
+        <v>0.0003936152788810432</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.006944558583199978</v>
+        <v>0.00118774245493114</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.09072333574295044</v>
+        <v>0.004075716715306044</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.03149858117103577</v>
+        <v>0.003714392427355051</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01522101741284132</v>
+        <v>0.002780669601634145</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.04984072968363762</v>
+        <v>0.003256602911278605</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01964795589447021</v>
+        <v>0.004552324768155813</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.02087989449501038</v>
+        <v>0.0007877607713453472</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.001583656761795282</v>
+        <v>0.0004277898115105927</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.046709094196558</v>
+        <v>0.0004130964516662061</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0171096995472908</v>
+        <v>0.0003383022558409721</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.01133012399077415</v>
+        <v>0.0006456417613662779</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.01590518094599247</v>
+        <v>0.004789563827216625</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.04056904092431068</v>
+        <v>0.001769191352650523</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.002825810573995113</v>
+        <v>0.0004965122207067907</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01326393987983465</v>
+        <v>0.001898746006190777</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.006794063840061426</v>
+        <v>0.003516346216201782</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.02149473316967487</v>
+        <v>0.001471554976888001</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.01985922269523144</v>
+        <v>0.001811930793337524</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.006590546574443579</v>
+        <v>0.003192866686731577</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.03940964117646217</v>
+        <v>0.003121481742709875</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.04981009289622307</v>
+        <v>0.002462099306285381</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0229162909090519</v>
+        <v>0.001181157538667321</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.02714219875633717</v>
+        <v>0.0005999491550028324</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01128204353153706</v>
+        <v>0.0004912898875772953</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.006599967833608389</v>
+        <v>0.002309436909854412</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.008839378133416176</v>
+        <v>0.0004923711530864239</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.02106894925236702</v>
+        <v>0.001510529546067119</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.002261410001665354</v>
+        <v>0.0004031471617054194</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.03015547245740891</v>
+        <v>0.000267689349129796</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.01544974651187658</v>
+        <v>0.004114364273846149</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.009291347116231918</v>
+        <v>0.004789531696587801</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0405518040060997</v>
+        <v>0.001150155789218843</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.03140829131007195</v>
+        <v>0.001398969907313585</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.06047184392809868</v>
+        <v>0.00422277906909585</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.02622219547629356</v>
+        <v>0.0008805707329884171</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.02792653068900108</v>
+        <v>0.0002611310046631843</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.007409588899463415</v>
+        <v>0.001131762517616153</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.04976558312773705</v>
+        <v>0.002696168376132846</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.08951771259307861</v>
+        <v>0.001648248871788383</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0568089559674263</v>
+        <v>0.002666207030415535</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.02418532222509384</v>
+        <v>0.003158370032906532</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.060219656676054</v>
+        <v>0.002712693065404892</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.02825205400586128</v>
+        <v>0.005217984784394503</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.006547257304191589</v>
+        <v>0.001129085896536708</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.05741953104734421</v>
+        <v>0.0009767822921276093</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.01797683350741863</v>
+        <v>0.0003225830150768161</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.04847531393170357</v>
+        <v>0.001056641340255737</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.01384175382554531</v>
+        <v>0.000384196697268635</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.04262864217162132</v>
+        <v>0.0001599593670107424</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.002276099286973476</v>
+        <v>0.001085432129912078</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.02837536111474037</v>
+        <v>0.004707451909780502</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.02204968221485615</v>
+        <v>0.0001074284955393523</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.02129055000841618</v>
+        <v>0.001805152278393507</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.03845733776688576</v>
+        <v>0.0007592682959511876</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.021272799000144</v>
+        <v>0.001295808237046003</v>
       </c>
     </row>
     <row r="8">
@@ -5556,2847 +5556,2847 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0004918469348922372</v>
+        <v>0.0001468381815357134</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0002448371378704906</v>
+        <v>0.0007903942605480552</v>
       </c>
       <c r="C10" t="n">
-        <v>4.884515510639176e-05</v>
+        <v>0.0001065293545252644</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002347879344597459</v>
+        <v>0.0005460709217004478</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000115519120299723</v>
+        <v>0.0002536386891733855</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001262856530956924</v>
+        <v>0.0001895679160952568</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001874779409263283</v>
+        <v>6.823975854786113e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.94553283310961e-05</v>
+        <v>9.908771971822716e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>8.276990411104634e-05</v>
+        <v>4.71417952212505e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0004514743923209608</v>
+        <v>0.0002235939318779856</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001547661959193647</v>
+        <v>0.0006156442104838789</v>
       </c>
       <c r="L10" t="n">
-        <v>8.082968997769058e-05</v>
+        <v>8.898686792235821e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0001909565180540085</v>
+        <v>0.0003891409724019468</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0001692948571871966</v>
+        <v>0.0003192287113051862</v>
       </c>
       <c r="O10" t="n">
-        <v>4.844678187509999e-05</v>
+        <v>0.0003708633303176612</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0002050580806098878</v>
+        <v>9.186423994833604e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.662340764596593e-05</v>
+        <v>0.0001731761876726523</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0001248389598913491</v>
+        <v>8.49757925607264e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>2.245992982352618e-05</v>
+        <v>2.492488420102745e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>2.573665915406309e-05</v>
+        <v>0.0001378296437906101</v>
       </c>
       <c r="U10" t="n">
-        <v>1.736694321152754e-05</v>
+        <v>4.54977634944953e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>9.473849786445498e-06</v>
+        <v>7.326799095608294e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>3.790828486671671e-05</v>
+        <v>0.0001218931211042218</v>
       </c>
       <c r="X10" t="n">
-        <v>2.545206916693132e-05</v>
+        <v>0.0001103805843740702</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.997355088358745e-05</v>
+        <v>0.000142773860716261</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.168953354470432e-05</v>
+        <v>5.437274376163259e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.464309116272489e-05</v>
+        <v>0.0001282720186281949</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.18744093622081e-05</v>
+        <v>4.30733198300004e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.316968518949579e-05</v>
+        <v>9.246732224710286e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.327702739217784e-05</v>
+        <v>4.578224616125226e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.220921204658225e-05</v>
+        <v>6.518064765259624e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.294018385233358e-05</v>
+        <v>6.302418478298932e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.215794327436015e-05</v>
+        <v>1.532714486529585e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.209900023648515e-05</v>
+        <v>6.67138519929722e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0001550605229567736</v>
+        <v>1.592402259120718e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.635518027702346e-05</v>
+        <v>6.024827598594129e-06</v>
       </c>
       <c r="AK10" t="n">
-        <v>9.716911881696433e-05</v>
+        <v>0.0001006445309030823</v>
       </c>
       <c r="AL10" t="n">
-        <v>7.669211481697857e-05</v>
+        <v>6.98167787049897e-05</v>
       </c>
       <c r="AM10" t="n">
-        <v>4.276751860743389e-05</v>
+        <v>4.151451139478013e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.936008139746264e-05</v>
+        <v>3.85171952075325e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.486009543645196e-05</v>
+        <v>4.348364018369466e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>6.084118649596348e-05</v>
+        <v>2.06790955417091e-05</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.496938875789056e-05</v>
+        <v>5.325239908415824e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>3.670001024147496e-05</v>
+        <v>2.97277256322559e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.314391506137326e-06</v>
+        <v>6.975175347179174e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0002164335892302915</v>
+        <v>3.190288043697365e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>5.057868111180142e-05</v>
+        <v>0.0005182874738238752</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.533998511149548e-05</v>
+        <v>3.318683593533933e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.964880281477235e-05</v>
+        <v>0.0001086972843040712</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.224960396939423e-05</v>
+        <v>2.517651591915637e-05</v>
       </c>
       <c r="AY10" t="n">
-        <v>8.805526158539578e-05</v>
+        <v>2.960476922453381e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.168481998727657e-05</v>
+        <v>1.899540438898839e-05</v>
       </c>
       <c r="BA10" t="n">
-        <v>3.401900903554633e-05</v>
+        <v>0.0001345861237496138</v>
       </c>
       <c r="BB10" t="n">
-        <v>4.934045500704087e-05</v>
+        <v>8.324422378791496e-05</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0001359609159408137</v>
+        <v>9.176424646284431e-05</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.905250418436481e-06</v>
+        <v>8.477068331558257e-05</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.15661584661575e-05</v>
+        <v>0.0002420684177195653</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.984384653042071e-05</v>
+        <v>0.0001121997120208107</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.815051604760811e-05</v>
+        <v>0.000274941063253209</v>
       </c>
       <c r="BH10" t="n">
-        <v>7.645932782907039e-06</v>
+        <v>0.0001222759892698377</v>
       </c>
       <c r="BI10" t="n">
-        <v>9.353552741231397e-05</v>
+        <v>2.196077366534155e-05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0001375014835502952</v>
+        <v>0.0001702118752291426</v>
       </c>
       <c r="BK10" t="n">
-        <v>8.705354048288427e-06</v>
+        <v>2.758694245130755e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>3.139836917398497e-05</v>
+        <v>0.0001271166693186387</v>
       </c>
       <c r="BM10" t="n">
-        <v>7.186972652561963e-05</v>
+        <v>0.0001300677104154602</v>
       </c>
       <c r="BN10" t="n">
-        <v>6.666362878604559e-06</v>
+        <v>0.0001003815996227786</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.2150633665442e-05</v>
+        <v>5.151228106115013e-05</v>
       </c>
       <c r="BP10" t="n">
-        <v>5.287081148708239e-05</v>
+        <v>0.0001327045611105859</v>
       </c>
       <c r="BQ10" t="n">
-        <v>8.355902537005022e-06</v>
+        <v>5.432753823697567e-05</v>
       </c>
       <c r="BR10" t="n">
-        <v>5.428746953839436e-05</v>
+        <v>3.789693437283859e-05</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.919427813845687e-05</v>
+        <v>0.0001210915070259944</v>
       </c>
       <c r="BT10" t="n">
-        <v>3.696358544402756e-05</v>
+        <v>3.344694050610997e-06</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.000186212855624035</v>
+        <v>1.67962716659531e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>8.392280506086536e-06</v>
+        <v>0.0002318589831702411</v>
       </c>
       <c r="BW10" t="n">
-        <v>4.83567091578152e-05</v>
+        <v>0.0001267824700335041</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0001279627467738464</v>
+        <v>7.425059447996318e-05</v>
       </c>
       <c r="BY10" t="n">
-        <v>7.000332698225975e-05</v>
+        <v>2.48251808443456e-06</v>
       </c>
       <c r="BZ10" t="n">
-        <v>5.001327372156084e-05</v>
+        <v>2.263477472297382e-05</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.899747596529778e-05</v>
+        <v>0.0001153218981926329</v>
       </c>
       <c r="CB10" t="n">
-        <v>2.947550819953904e-05</v>
+        <v>2.592326018202584e-05</v>
       </c>
       <c r="CC10" t="n">
-        <v>6.483626202680171e-05</v>
+        <v>5.506295565282926e-05</v>
       </c>
       <c r="CD10" t="n">
-        <v>9.955744462786242e-05</v>
+        <v>6.854403636680217e-06</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0001070243306457996</v>
+        <v>0.0001331001549260691</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.513745857868344e-05</v>
+        <v>8.688552770763636e-05</v>
       </c>
       <c r="CG10" t="n">
-        <v>6.219878559932113e-05</v>
+        <v>4.303665991756134e-05</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.079409387079068e-05</v>
+        <v>3.592217763070948e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.22922460832342e-06</v>
+        <v>5.752530705649406e-05</v>
       </c>
       <c r="CJ10" t="n">
-        <v>3.808876135735773e-05</v>
+        <v>9.041703378898092e-06</v>
       </c>
       <c r="CK10" t="n">
-        <v>3.750794348889031e-06</v>
+        <v>1.180052549898392e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>6.50221136311302e-06</v>
+        <v>8.330802666023374e-05</v>
       </c>
       <c r="CM10" t="n">
-        <v>3.205575194442645e-05</v>
+        <v>0.0001084053801605478</v>
       </c>
       <c r="CN10" t="n">
-        <v>8.530175364285242e-06</v>
+        <v>7.376651410595514e-06</v>
       </c>
       <c r="CO10" t="n">
-        <v>4.864326911047101e-06</v>
+        <v>4.710099528892897e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>8.663348125992343e-06</v>
+        <v>0.0002288121759193018</v>
       </c>
       <c r="CQ10" t="n">
-        <v>5.799690552521497e-05</v>
+        <v>0.0001605810248292983</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.4853447030182e-05</v>
+        <v>3.339171598781832e-06</v>
       </c>
       <c r="CS10" t="n">
-        <v>7.133327017072588e-06</v>
+        <v>0.0001385977957397699</v>
       </c>
       <c r="CT10" t="n">
-        <v>6.574162398464978e-05</v>
+        <v>1.061593047779752e-05</v>
       </c>
       <c r="CU10" t="n">
-        <v>1.418486681359354e-05</v>
+        <v>2.013714401982725e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>7.919024938018993e-05</v>
+        <v>1.00348570413189e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0001058777488651685</v>
+        <v>0.0001238533877767622</v>
       </c>
       <c r="CX10" t="n">
-        <v>3.973029379267246e-05</v>
+        <v>7.741260924376547e-05</v>
       </c>
       <c r="CY10" t="n">
-        <v>4.495686152949929e-05</v>
+        <v>8.831071318127215e-05</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.036711546475999e-05</v>
+        <v>4.90450911456719e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.016453694546726e-07</v>
+        <v>6.611374556086957e-05</v>
       </c>
       <c r="DB10" t="n">
-        <v>4.849841934628785e-05</v>
+        <v>3.351533086970448e-05</v>
       </c>
       <c r="DC10" t="n">
-        <v>5.815693384647602e-07</v>
+        <v>2.561449582572095e-05</v>
       </c>
       <c r="DD10" t="n">
-        <v>7.350401574512944e-06</v>
+        <v>6.999034667387605e-05</v>
       </c>
       <c r="DE10" t="n">
-        <v>6.519948328786995e-06</v>
+        <v>0.0001150224852608517</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0001476382167311385</v>
+        <v>3.244755498599261e-05</v>
       </c>
       <c r="DG10" t="n">
-        <v>9.795838559512049e-05</v>
+        <v>0.0001841448683990166</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.038734626490623e-05</v>
+        <v>0.0003665554977487773</v>
       </c>
       <c r="DI10" t="n">
-        <v>1.599773895577528e-05</v>
+        <v>0.0001854106085374951</v>
       </c>
       <c r="DJ10" t="n">
-        <v>3.457427374087274e-05</v>
+        <v>5.833333489135839e-05</v>
       </c>
       <c r="DK10" t="n">
-        <v>4.040800195070915e-05</v>
+        <v>3.307834776933305e-05</v>
       </c>
       <c r="DL10" t="n">
-        <v>6.261281669139862e-05</v>
+        <v>9.252393647329882e-05</v>
       </c>
       <c r="DM10" t="n">
-        <v>5.267775486572646e-05</v>
+        <v>5.244263593340293e-05</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.413624249835266e-05</v>
+        <v>1.465237983211409e-05</v>
       </c>
       <c r="DO10" t="n">
-        <v>6.923795444890857e-05</v>
+        <v>5.58178435312584e-05</v>
       </c>
       <c r="DP10" t="n">
-        <v>5.152532321517356e-05</v>
+        <v>7.229524635476992e-05</v>
       </c>
       <c r="DQ10" t="n">
-        <v>4.418907701619901e-05</v>
+        <v>1.94185213331366e-06</v>
       </c>
       <c r="DR10" t="n">
-        <v>6.479582953033969e-05</v>
+        <v>6.137349555501714e-05</v>
       </c>
       <c r="DS10" t="n">
-        <v>3.061013558181003e-05</v>
+        <v>3.403044684091583e-05</v>
       </c>
       <c r="DT10" t="n">
-        <v>7.569959052489139e-06</v>
+        <v>4.019196057925001e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.045092878688592e-05</v>
+        <v>1.442110533389496e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>4.152793189859949e-05</v>
+        <v>0.000140952950459905</v>
       </c>
       <c r="DW10" t="n">
-        <v>3.981835470767692e-05</v>
+        <v>4.905150854028761e-05</v>
       </c>
       <c r="DX10" t="n">
-        <v>4.565974086290225e-05</v>
+        <v>8.075417281361297e-05</v>
       </c>
       <c r="DY10" t="n">
-        <v>3.522184852045029e-05</v>
+        <v>0.0001672529033385217</v>
       </c>
       <c r="DZ10" t="n">
-        <v>1.551137756905518e-05</v>
+        <v>1.773868098098319e-05</v>
       </c>
       <c r="EA10" t="n">
-        <v>6.181142089189962e-05</v>
+        <v>1.101516591006657e-05</v>
       </c>
       <c r="EB10" t="n">
-        <v>1.230605357704917e-05</v>
+        <v>0.0001456696190871298</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.407155468768906e-05</v>
+        <v>4.394003190100193e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0001040688584907912</v>
+        <v>1.082849394151708e-05</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.271547716896748e-05</v>
+        <v>1.900482675409876e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0001557280775159597</v>
+        <v>2.486300945747644e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0001384528441121802</v>
+        <v>9.481518645770848e-05</v>
       </c>
       <c r="EH10" t="n">
-        <v>2.832856807799544e-05</v>
+        <v>4.222993084113114e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>7.576298958156258e-05</v>
+        <v>3.895456393365748e-05</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.100432746170554e-05</v>
+        <v>5.754586891271174e-05</v>
       </c>
       <c r="EK10" t="n">
-        <v>2.107814361806959e-05</v>
+        <v>5.185158806852996e-05</v>
       </c>
       <c r="EL10" t="n">
-        <v>2.717135976126883e-05</v>
+        <v>6.80599914630875e-05</v>
       </c>
       <c r="EM10" t="n">
-        <v>3.431960794841871e-05</v>
+        <v>1.335316119366325e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>8.76256945048226e-06</v>
+        <v>3.964611460105516e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>2.038103411905468e-05</v>
+        <v>1.718314160825685e-05</v>
       </c>
       <c r="EP10" t="n">
-        <v>9.187244722852483e-05</v>
+        <v>5.134349339641631e-05</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.005581179924775e-05</v>
+        <v>0.0001020425042952411</v>
       </c>
       <c r="ER10" t="n">
-        <v>2.731774111452978e-05</v>
+        <v>4.058163540321402e-06</v>
       </c>
       <c r="ES10" t="n">
-        <v>6.368565664160997e-05</v>
+        <v>5.477810191223398e-05</v>
       </c>
       <c r="ET10" t="n">
-        <v>7.129949608497554e-06</v>
+        <v>2.386190681136213e-05</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.951903141161893e-05</v>
+        <v>2.640672755660489e-05</v>
       </c>
       <c r="EV10" t="n">
-        <v>3.24641187035013e-05</v>
+        <v>0.0001719381689326838</v>
       </c>
       <c r="EW10" t="n">
-        <v>3.372119317646138e-05</v>
+        <v>3.343744901940227e-05</v>
       </c>
       <c r="EX10" t="n">
-        <v>8.313643047586083e-05</v>
+        <v>1.020289710140787e-05</v>
       </c>
       <c r="EY10" t="n">
-        <v>9.273189061786979e-05</v>
+        <v>0.000114277056127321</v>
       </c>
       <c r="EZ10" t="n">
-        <v>3.769830800592899e-05</v>
+        <v>6.325986032607034e-05</v>
       </c>
       <c r="FA10" t="n">
-        <v>5.546714601223357e-05</v>
+        <v>5.194058394408785e-05</v>
       </c>
       <c r="FB10" t="n">
-        <v>1.824620085244533e-06</v>
+        <v>2.857536674127914e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.240742287540343e-05</v>
+        <v>5.933519059908576e-05</v>
       </c>
       <c r="FD10" t="n">
-        <v>3.963810740970075e-05</v>
+        <v>3.252560418331996e-05</v>
       </c>
       <c r="FE10" t="n">
-        <v>5.016522663936485e-06</v>
+        <v>4.695109055319335e-06</v>
       </c>
       <c r="FF10" t="n">
-        <v>3.88817261409713e-06</v>
+        <v>9.675423643784598e-05</v>
       </c>
       <c r="FG10" t="n">
-        <v>6.48155837552622e-05</v>
+        <v>7.183413254097104e-05</v>
       </c>
       <c r="FH10" t="n">
-        <v>3.747069058590569e-05</v>
+        <v>5.431351382867433e-06</v>
       </c>
       <c r="FI10" t="n">
-        <v>4.146165156271309e-05</v>
+        <v>0.0001631984632695094</v>
       </c>
       <c r="FJ10" t="n">
-        <v>5.592258094111457e-05</v>
+        <v>0.0001300989097217098</v>
       </c>
       <c r="FK10" t="n">
-        <v>7.743894821032882e-05</v>
+        <v>8.872394573700149e-06</v>
       </c>
       <c r="FL10" t="n">
-        <v>2.120385215675924e-05</v>
+        <v>8.242054173024371e-05</v>
       </c>
       <c r="FM10" t="n">
-        <v>4.902977525489405e-05</v>
+        <v>6.359712278936058e-05</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.273013276659185e-05</v>
+        <v>0.0001513965835329145</v>
       </c>
       <c r="FO10" t="n">
-        <v>5.310989763529506e-06</v>
+        <v>8.226285717682913e-05</v>
       </c>
       <c r="FP10" t="n">
-        <v>5.242918996373191e-05</v>
+        <v>6.330055839498527e-06</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.0001641777053009719</v>
+        <v>6.854803359601647e-06</v>
       </c>
       <c r="FR10" t="n">
-        <v>3.39594844263047e-05</v>
+        <v>3.630971332313493e-05</v>
       </c>
       <c r="FS10" t="n">
-        <v>3.478108556009829e-05</v>
+        <v>3.899420335073955e-05</v>
       </c>
       <c r="FT10" t="n">
-        <v>5.446937211672775e-05</v>
+        <v>0.0001788678055163473</v>
       </c>
       <c r="FU10" t="n">
-        <v>6.631726864725351e-05</v>
+        <v>2.205050986958668e-05</v>
       </c>
       <c r="FV10" t="n">
-        <v>3.624607415986247e-05</v>
+        <v>7.429991092067212e-05</v>
       </c>
       <c r="FW10" t="n">
-        <v>6.504835255327635e-06</v>
+        <v>0.0001380424801027402</v>
       </c>
       <c r="FX10" t="n">
-        <v>2.378236240474507e-05</v>
+        <v>8.023774717003107e-05</v>
       </c>
       <c r="FY10" t="n">
-        <v>5.826645428896882e-05</v>
+        <v>0.0001966716081369668</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.448903094569687e-05</v>
+        <v>6.744666461599991e-05</v>
       </c>
       <c r="GA10" t="n">
-        <v>2.759207927738316e-05</v>
+        <v>1.542712925584055e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>7.376170833595097e-05</v>
+        <v>1.809133755159564e-05</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.301310658163857e-05</v>
+        <v>0.000228704055189155</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.65966918959748e-05</v>
+        <v>0.0001018365655909292</v>
       </c>
       <c r="GE10" t="n">
-        <v>3.412494697840884e-05</v>
+        <v>0.000236850100918673</v>
       </c>
       <c r="GF10" t="n">
-        <v>4.482935764826834e-05</v>
+        <v>3.067612851737067e-05</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.097094354918227e-05</v>
+        <v>0.0001061377770383842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001429645461030304</v>
+        <v>6.329311872832477e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>0.000169402250321582</v>
+        <v>0.01211751904338598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001493614166975021</v>
+        <v>0.0003940300666727126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0004686542670242488</v>
+        <v>0.004349670372903347</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0005603614263236523</v>
+        <v>0.003499573329463601</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0001014938752632588</v>
+        <v>0.006845882628113031</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003601445641834289</v>
+        <v>0.0006010947399772704</v>
       </c>
       <c r="H11" t="n">
-        <v>4.23725214204751e-06</v>
+        <v>0.002911643357947469</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003030014922842383</v>
+        <v>0.00221163802780211</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001354099484160542</v>
+        <v>0.001111095887608826</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001632502826396376</v>
+        <v>0.01254316419363022</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001697104191407561</v>
+        <v>0.001285430160351098</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0001620515831746161</v>
+        <v>0.002815929474309087</v>
       </c>
       <c r="N11" t="n">
-        <v>2.233442501164973e-06</v>
+        <v>0.0007975160260684788</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0002521886490285397</v>
+        <v>0.005510240793228149</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0003855347167700529</v>
+        <v>0.0007586004212498665</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0002322376240044832</v>
+        <v>0.0005135377869009972</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0005255547584965825</v>
+        <v>0.002188067184761167</v>
       </c>
       <c r="S11" t="n">
-        <v>1.19732430903241e-05</v>
+        <v>0.0006212783046066761</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0003515425487421453</v>
+        <v>0.0009730271412990987</v>
       </c>
       <c r="U11" t="n">
-        <v>4.409644679981284e-05</v>
+        <v>0.0003689922741614282</v>
       </c>
       <c r="V11" t="n">
-        <v>3.743069100892171e-06</v>
+        <v>0.0006241302471607924</v>
       </c>
       <c r="W11" t="n">
-        <v>1.286090264329687e-05</v>
+        <v>0.001687036594375968</v>
       </c>
       <c r="X11" t="n">
-        <v>2.937762110377662e-05</v>
+        <v>0.0008210654486902058</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.000139181618578732</v>
+        <v>4.334724144428037e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.000340002472512424</v>
+        <v>0.001383109600283206</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.132513979333453e-05</v>
+        <v>0.001079214969649911</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.874687147093937e-05</v>
+        <v>0.0007853680290281773</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.720541669987142e-05</v>
+        <v>0.0007895072922110558</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0001444029912818223</v>
+        <v>0.001010060892440379</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0002749220584519207</v>
+        <v>0.0002243953786091879</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.492799679515883e-05</v>
+        <v>0.0008102504070848227</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0001436653692508116</v>
+        <v>0.0005723332869820297</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0001932276500156149</v>
+        <v>0.0006899619475007057</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0005164452595636249</v>
+        <v>0.001273487927392125</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0003745564608834684</v>
+        <v>0.0001856736489571631</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0002859210944734514</v>
+        <v>0.001124759088270366</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.000282502209302038</v>
+        <v>0.001752340816892684</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0001535408664494753</v>
+        <v>0.001205057371407747</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0002623972541186959</v>
+        <v>6.88940635882318e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.371498339925893e-05</v>
+        <v>0.0002821257221512496</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.561651414609514e-05</v>
+        <v>0.0009072715765796602</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.829886034305673e-05</v>
+        <v>0.0003789147885981947</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0001797264121705666</v>
+        <v>0.0003538738237693906</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.654714964795858e-05</v>
+        <v>0.0008093081996776164</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0006083238404244184</v>
+        <v>0.001473653130233288</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0001304080651607364</v>
+        <v>0.007530737202614546</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.000715408765245229</v>
+        <v>0.001360441790893674</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0003442339366301894</v>
+        <v>1.740643347147852e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>9.095973655348644e-05</v>
+        <v>0.000812411424703896</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0004070458235219121</v>
+        <v>0.003421674249693751</v>
       </c>
       <c r="AZ11" t="n">
-        <v>8.574886305723339e-05</v>
+        <v>0.001758421421982348</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0001055462707881816</v>
+        <v>0.0006730223540216684</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.331175735685974e-05</v>
+        <v>0.0009221249492838979</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0002800000947900116</v>
+        <v>0.0001249785418622196</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.048314516083337e-06</v>
+        <v>0.00303410179913044</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.0004866296076215804</v>
+        <v>0.001202126382850111</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.664525188971311e-05</v>
+        <v>7.776005077175796e-06</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0003845543833449483</v>
+        <v>0.003373262006789446</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0001087306736735627</v>
+        <v>0.002386102685704827</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0002690491382963955</v>
+        <v>0.0003345111617818475</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.0002508291217964143</v>
+        <v>0.0001787789660738781</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0001115637860493734</v>
+        <v>0.001199216931127012</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0001035289242281578</v>
+        <v>0.001083312323316932</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0001317861169809476</v>
+        <v>0.001730466959998012</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0002973921073134989</v>
+        <v>0.0007570735178887844</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.228888686455321e-05</v>
+        <v>0.0009028022177517414</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0003577411116566509</v>
+        <v>0.0007798331207595766</v>
       </c>
       <c r="BQ11" t="n">
-        <v>7.442762580467388e-05</v>
+        <v>0.0003315884969197214</v>
       </c>
       <c r="BR11" t="n">
-        <v>6.662273790425388e-06</v>
+        <v>0.001084886840544641</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0001709975185804069</v>
+        <v>0.0003994874132331461</v>
       </c>
       <c r="BT11" t="n">
-        <v>2.632395990076475e-06</v>
+        <v>2.015347126871347e-05</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0005179918371140957</v>
+        <v>0.000722019060049206</v>
       </c>
       <c r="BV11" t="n">
-        <v>7.344745972659439e-05</v>
+        <v>0.004823270253837109</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0003389756020624191</v>
+        <v>0.0001415858278051019</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0002335428725928068</v>
+        <v>8.437526412308216e-05</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.000119354052003473</v>
+        <v>4.593640187522396e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0001789509551599622</v>
+        <v>0.001211707131005824</v>
       </c>
       <c r="CA11" t="n">
-        <v>3.459458093857393e-05</v>
+        <v>5.213501572143286e-05</v>
       </c>
       <c r="CB11" t="n">
-        <v>4.059558705193922e-06</v>
+        <v>8.331699064001441e-07</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0001875203306553885</v>
+        <v>0.001097905798815191</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0002973311929963529</v>
+        <v>0.00015837381943129</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0003223913081455976</v>
+        <v>0.002110273810103536</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.0003019076539203525</v>
+        <v>0.000455076398793608</v>
       </c>
       <c r="CG11" t="n">
-        <v>2.817570748447906e-05</v>
+        <v>0.0006296982173807919</v>
       </c>
       <c r="CH11" t="n">
-        <v>6.438160926336423e-05</v>
+        <v>4.864010770688765e-05</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.000147011160152033</v>
+        <v>0.0009525448549538851</v>
       </c>
       <c r="CJ11" t="n">
-        <v>6.444241444114596e-05</v>
+        <v>0.001071666018106043</v>
       </c>
       <c r="CK11" t="n">
-        <v>4.824356437893584e-06</v>
+        <v>9.589161345502362e-05</v>
       </c>
       <c r="CL11" t="n">
-        <v>8.910299584385939e-06</v>
+        <v>0.0006587660755030811</v>
       </c>
       <c r="CM11" t="n">
-        <v>4.12949375458993e-05</v>
+        <v>0.002590538235381246</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0002835657214745879</v>
+        <v>0.001550501096062362</v>
       </c>
       <c r="CO11" t="n">
-        <v>5.639915616484359e-05</v>
+        <v>0.0003581047640182078</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0001363172195851803</v>
+        <v>0.003788669593632221</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0002187105274060741</v>
+        <v>0.001203255262225866</v>
       </c>
       <c r="CR11" t="n">
-        <v>4.804183845408261e-05</v>
+        <v>0.001043929602019489</v>
       </c>
       <c r="CS11" t="n">
-        <v>5.360184877645224e-05</v>
+        <v>0.002848129952326417</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.065566902980208e-05</v>
+        <v>0.002129517262801528</v>
       </c>
       <c r="CU11" t="n">
-        <v>7.382620242424309e-05</v>
+        <v>7.728645869065076e-05</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0002596736012492329</v>
+        <v>0.0001106580020859838</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0002826450509019196</v>
+        <v>0.001929815858602524</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.0003372865612618625</v>
+        <v>0.0004693424853030592</v>
       </c>
       <c r="CY11" t="n">
-        <v>3.597458999138325e-06</v>
+        <v>0.001098996377550066</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0002119450364261866</v>
+        <v>6.998656772339018e-06</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0001568516599945724</v>
+        <v>0.0009879774879664183</v>
       </c>
       <c r="DB11" t="n">
-        <v>8.037647785386071e-05</v>
+        <v>0.0009725064155645669</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.79018697963329e-05</v>
+        <v>0.000463734962977469</v>
       </c>
       <c r="DD11" t="n">
-        <v>2.342724837944843e-05</v>
+        <v>0.0005482718115672469</v>
       </c>
       <c r="DE11" t="n">
-        <v>9.373300417792052e-05</v>
+        <v>0.0008355312747880816</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.0007553048199042678</v>
+        <v>0.002602550201117992</v>
       </c>
       <c r="DG11" t="n">
-        <v>8.592504309490323e-05</v>
+        <v>0.000561626860871911</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.052230411209166e-05</v>
+        <v>0.002668125322088599</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.0003614145389292389</v>
+        <v>0.004607160575687885</v>
       </c>
       <c r="DJ11" t="n">
-        <v>3.576176823116839e-05</v>
+        <v>0.003385888878256083</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0001570572931086645</v>
+        <v>0.0009518176084384322</v>
       </c>
       <c r="DL11" t="n">
-        <v>6.187880353536457e-05</v>
+        <v>0.0008955922676250339</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0001168119924841449</v>
+        <v>0.002511273138225079</v>
       </c>
       <c r="DN11" t="n">
-        <v>4.636818994185887e-05</v>
+        <v>2.833877806551754e-05</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.0003829602501355112</v>
+        <v>0.0003189877606928349</v>
       </c>
       <c r="DP11" t="n">
-        <v>6.583955837413669e-05</v>
+        <v>0.001715126796625555</v>
       </c>
       <c r="DQ11" t="n">
-        <v>2.48404176090844e-05</v>
+        <v>1.147971488535404e-06</v>
       </c>
       <c r="DR11" t="n">
-        <v>3.527623448462691e-06</v>
+        <v>0.001564352889545262</v>
       </c>
       <c r="DS11" t="n">
-        <v>7.216681842692196e-05</v>
+        <v>0.001588365063071251</v>
       </c>
       <c r="DT11" t="n">
-        <v>3.225918771931902e-05</v>
+        <v>0.001618763315491378</v>
       </c>
       <c r="DU11" t="n">
-        <v>2.348046109545976e-05</v>
+        <v>0.0003304823476355523</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.041518407873809e-05</v>
+        <v>0.000285403075395152</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.0001617193047422916</v>
+        <v>0.0002397906209807843</v>
       </c>
       <c r="DX11" t="n">
-        <v>9.19153681024909e-05</v>
+        <v>0.001088534016162157</v>
       </c>
       <c r="DY11" t="n">
-        <v>4.127906140638515e-05</v>
+        <v>0.0002184428740292788</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0001275109243579209</v>
+        <v>0.001656199106946588</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.000175755747477524</v>
+        <v>0.0006982302293181419</v>
       </c>
       <c r="EB11" t="n">
-        <v>6.711744208587334e-05</v>
+        <v>0.001527530374005437</v>
       </c>
       <c r="EC11" t="n">
-        <v>6.150828994577751e-05</v>
+        <v>0.0007526238914579153</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0002408011059742421</v>
+        <v>0.001399914734065533</v>
       </c>
       <c r="EE11" t="n">
-        <v>4.878036270383745e-05</v>
+        <v>0.002094349823892117</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0004776878631673753</v>
+        <v>0.0003664171963464469</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0001823426719056442</v>
+        <v>0.002389004919677973</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0003350225742906332</v>
+        <v>0.000330849172314629</v>
       </c>
       <c r="EI11" t="n">
-        <v>1.631954728509299e-05</v>
+        <v>0.0002996408438775688</v>
       </c>
       <c r="EJ11" t="n">
-        <v>8.046775474213064e-05</v>
+        <v>0.0001555975759401917</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.0003628464764915407</v>
+        <v>0.0005136543186381459</v>
       </c>
       <c r="EL11" t="n">
-        <v>1.710592550807633e-05</v>
+        <v>0.000946743122767657</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0001788357913028449</v>
+        <v>0.0007067985134199262</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.0002032555930782109</v>
+        <v>0.0004189230385236442</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0001155553036369383</v>
+        <v>0.0004399690078571439</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.0001759008009685203</v>
+        <v>0.00117974414024502</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0001044404561980627</v>
+        <v>0.0001235117088072002</v>
       </c>
       <c r="ER11" t="n">
-        <v>3.597546310629696e-06</v>
+        <v>0.0009481466840952635</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0001151532851508819</v>
+        <v>0.001010357751511037</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.0001746771158650517</v>
+        <v>0.001096007414162159</v>
       </c>
       <c r="EU11" t="n">
-        <v>5.134027742315084e-05</v>
+        <v>0.001952759455889463</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.381577021675184e-05</v>
+        <v>0.001796678290702403</v>
       </c>
       <c r="EW11" t="n">
-        <v>8.399819489568472e-05</v>
+        <v>1.360940223094076e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0002782581723295152</v>
+        <v>0.0003037333372049034</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.0002507212047930807</v>
+        <v>0.001792480354197323</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.0003269094158895314</v>
+        <v>0.000129613617900759</v>
       </c>
       <c r="FA11" t="n">
-        <v>2.466859223204665e-05</v>
+        <v>0.0002987584739457816</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0001478761259932071</v>
+        <v>0.0001568506850162521</v>
       </c>
       <c r="FC11" t="n">
-        <v>4.282088411855511e-05</v>
+        <v>0.0009969531092792749</v>
       </c>
       <c r="FD11" t="n">
-        <v>8.319734479300678e-05</v>
+        <v>0.001428265357390046</v>
       </c>
       <c r="FE11" t="n">
-        <v>2.960751226055436e-05</v>
+        <v>0.000179568407475017</v>
       </c>
       <c r="FF11" t="n">
-        <v>6.770066102035344e-05</v>
+        <v>0.0009545499924570322</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.000133828172693029</v>
+        <v>8.191517554223537e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.000100966208265163</v>
+        <v>0.0001894342130981386</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.0003023099852725863</v>
+        <v>0.0009259796934202313</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.000287497037788853</v>
+        <v>0.002289607655256987</v>
       </c>
       <c r="FK11" t="n">
-        <v>4.179159077466466e-05</v>
+        <v>0.0002951954083982855</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.0001655030064284801</v>
+        <v>0.001010761130601168</v>
       </c>
       <c r="FM11" t="n">
-        <v>5.25463474332355e-05</v>
+        <v>0.00119912950322032</v>
       </c>
       <c r="FN11" t="n">
-        <v>2.77472790912725e-05</v>
+        <v>6.54074246995151e-05</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.0001711048244033009</v>
+        <v>0.0001346072240266949</v>
       </c>
       <c r="FP11" t="n">
-        <v>8.841040835250169e-05</v>
+        <v>0.001395473955199122</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.0007819298771210015</v>
+        <v>0.002030644100159407</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0001252137444680557</v>
+        <v>0.0008010659948922694</v>
       </c>
       <c r="FS11" t="n">
-        <v>9.521361789666116e-05</v>
+        <v>0.001271272427402437</v>
       </c>
       <c r="FT11" t="n">
-        <v>9.06106288312003e-06</v>
+        <v>0.000356800330337137</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.0001527787244413048</v>
+        <v>0.0007976656779646873</v>
       </c>
       <c r="FV11" t="n">
-        <v>4.916773832519539e-06</v>
+        <v>0.001543139573186636</v>
       </c>
       <c r="FW11" t="n">
-        <v>2.541396679589525e-05</v>
+        <v>0.0006171116256155074</v>
       </c>
       <c r="FX11" t="n">
-        <v>7.499064668081701e-05</v>
+        <v>0.0001776165299816057</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.0001678472908679396</v>
+        <v>0.001910380320623517</v>
       </c>
       <c r="FZ11" t="n">
-        <v>6.114147254265845e-05</v>
+        <v>0.0005219446611590683</v>
       </c>
       <c r="GA11" t="n">
-        <v>7.155218190746382e-05</v>
+        <v>0.0001908355479827151</v>
       </c>
       <c r="GB11" t="n">
-        <v>1.176598016172647e-05</v>
+        <v>0.0003137454041279852</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0002692342095542699</v>
+        <v>0.0002022025728365406</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0001830497058108449</v>
+        <v>0.0007604581769555807</v>
       </c>
       <c r="GE11" t="n">
-        <v>2.595469777588733e-05</v>
+        <v>0.001963504124432802</v>
       </c>
       <c r="GF11" t="n">
-        <v>7.034112059045583e-06</v>
+        <v>8.793655433692038e-05</v>
       </c>
       <c r="GG11" t="n">
-        <v>3.509911766741425e-05</v>
+        <v>0.0006328023737296462</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0003549464454408735</v>
+        <v>1.862419594544917e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0001425854279659688</v>
+        <v>7.457400351995602e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>2.560481152613647e-05</v>
+        <v>1.216825694427826e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002164313336834311</v>
+        <v>4.955893746227957e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001606747973710299</v>
+        <v>2.936254713858943e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>2.411458081041928e-05</v>
+        <v>2.265260081912857e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002044205612037331</v>
+        <v>4.848541266255779e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>4.882019129581749e-05</v>
+        <v>3.191408268321538e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>6.098260928411037e-05</v>
+        <v>2.346900345173708e-07</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000312202493660152</v>
+        <v>2.690171095309779e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>7.338906289078295e-05</v>
+        <v>5.619438161375001e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>6.622745422646403e-05</v>
+        <v>1.078183322533732e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002020584361162037</v>
+        <v>3.479659062577412e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0002169677754864097</v>
+        <v>3.12967094941996e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>3.278789881733246e-05</v>
+        <v>3.99778364226222e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0002118155971402302</v>
+        <v>1.144471843872452e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.638881440158002e-05</v>
+        <v>1.642790266487282e-05</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0001165056019090116</v>
+        <v>4.641871328203706e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>9.710809536045417e-06</v>
+        <v>1.212355073221261e-06</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96351065824274e-05</v>
+        <v>1.40339234349085e-05</v>
       </c>
       <c r="U12" t="n">
-        <v>7.354515673796413e-06</v>
+        <v>6.941762876522262e-06</v>
       </c>
       <c r="V12" t="n">
-        <v>3.271338937338442e-05</v>
+        <v>6.269746791076614e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>3.390201754882582e-06</v>
+        <v>1.177176727651386e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>1.926084223669022e-05</v>
+        <v>9.846249668044038e-06</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.205447501386516e-05</v>
+        <v>1.575371425133198e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.404045416275039e-05</v>
+        <v>5.424473783932626e-06</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.907683665398508e-05</v>
+        <v>1.325637003901647e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.43095782934688e-05</v>
+        <v>3.973341335949954e-06</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.912591662607156e-05</v>
+        <v>2.649121825015754e-06</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.378489625698421e-05</v>
+        <v>4.769640327140223e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.165025605587289e-05</v>
+        <v>7.805710993125103e-06</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.604487159871496e-05</v>
+        <v>8.297667591250502e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.282334728282876e-05</v>
+        <v>7.484690627279633e-07</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.243649214506149e-05</v>
+        <v>8.884843737178016e-06</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.578346124617383e-05</v>
+        <v>1.669283392402576e-06</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.112254085455788e-05</v>
+        <v>1.039535106883704e-07</v>
       </c>
       <c r="AK12" t="n">
-        <v>5.543495353776962e-05</v>
+        <v>1.11477866084897e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.85169938049512e-05</v>
+        <v>8.590949619247112e-06</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.252005586138694e-05</v>
+        <v>5.220304046815727e-06</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.813962368643843e-05</v>
+        <v>2.63072615780402e-06</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.627743378980085e-05</v>
+        <v>3.6922465369571e-06</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.668885281309485e-05</v>
+        <v>3.622328108576767e-07</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.83875163202174e-05</v>
+        <v>5.043639248469844e-06</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.694251452339813e-05</v>
+        <v>5.126952146383701e-06</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.221783456159756e-07</v>
+        <v>8.211708518501837e-06</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0001471497816964984</v>
+        <v>2.119330247296602e-06</v>
       </c>
       <c r="AU12" t="n">
-        <v>3.374405423528515e-05</v>
+        <v>4.657187309931032e-05</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.165391131507931e-05</v>
+        <v>8.063150289672194e-07</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.854532380704768e-05</v>
+        <v>1.495740070822649e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.728745312197134e-05</v>
+        <v>6.147958174551604e-06</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.816981603042223e-05</v>
+        <v>7.865283805585932e-06</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.898257662309334e-05</v>
+        <v>1.020230001813616e-06</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.208939935779199e-05</v>
+        <v>9.707342542242259e-06</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.45214391220361e-05</v>
+        <v>1.186938516184455e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.00013107513950672</v>
+        <v>1.237821288668783e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>6.405854037438985e-06</v>
+        <v>1.228189194080187e-05</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.42537387041375e-05</v>
+        <v>2.353218587813899e-05</v>
       </c>
       <c r="BF12" t="n">
-        <v>7.766002454445697e-07</v>
+        <v>1.084579707821831e-05</v>
       </c>
       <c r="BG12" t="n">
-        <v>5.84029548917897e-05</v>
+        <v>2.563847374403849e-05</v>
       </c>
       <c r="BH12" t="n">
-        <v>6.381423190759961e-06</v>
+        <v>1.078323839465156e-05</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.0001080026122508571</v>
+        <v>1.436104184904252e-06</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.000127467093989253</v>
+        <v>1.721296575851738e-05</v>
       </c>
       <c r="BK12" t="n">
-        <v>9.66546758718323e-06</v>
+        <v>1.642416464164853e-06</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.169235838460736e-05</v>
+        <v>9.160808986052871e-06</v>
       </c>
       <c r="BM12" t="n">
-        <v>4.113986869924702e-05</v>
+        <v>1.281347067561001e-05</v>
       </c>
       <c r="BN12" t="n">
-        <v>9.199909072776791e-06</v>
+        <v>1.119414537242847e-05</v>
       </c>
       <c r="BO12" t="n">
-        <v>6.770246545784175e-05</v>
+        <v>4.737637482321588e-06</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.533615406719036e-05</v>
+        <v>5.495429377333494e-06</v>
       </c>
       <c r="BQ12" t="n">
-        <v>8.499766408931464e-06</v>
+        <v>2.322005002497463e-06</v>
       </c>
       <c r="BR12" t="n">
-        <v>5.643429176416248e-05</v>
+        <v>4.485323643166339e-06</v>
       </c>
       <c r="BS12" t="n">
-        <v>8.257127774413675e-06</v>
+        <v>6.570335244759917e-06</v>
       </c>
       <c r="BT12" t="n">
-        <v>8.672730473335832e-06</v>
+        <v>3.850491339107975e-06</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.0001209791516885161</v>
+        <v>4.161734068475198e-06</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.521225567557849e-05</v>
+        <v>2.184787081205286e-05</v>
       </c>
       <c r="BW12" t="n">
-        <v>3.071946048294194e-05</v>
+        <v>1.465780314902076e-05</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0001119619410019368</v>
+        <v>6.531337930937298e-06</v>
       </c>
       <c r="BY12" t="n">
-        <v>6.760637188563123e-05</v>
+        <v>5.397894256020663e-06</v>
       </c>
       <c r="BZ12" t="n">
-        <v>3.505388303892687e-05</v>
+        <v>6.311674951575696e-07</v>
       </c>
       <c r="CA12" t="n">
-        <v>2.825347110047005e-05</v>
+        <v>1.229178906214656e-05</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.116410541930236e-05</v>
+        <v>1.100358417716052e-06</v>
       </c>
       <c r="CC12" t="n">
-        <v>2.088966175506357e-05</v>
+        <v>7.022620593488682e-06</v>
       </c>
       <c r="CD12" t="n">
-        <v>5.770022471551783e-05</v>
+        <v>6.28686450454552e-07</v>
       </c>
       <c r="CE12" t="n">
-        <v>7.003967766650021e-05</v>
+        <v>1.261862689716509e-05</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.182518099085428e-05</v>
+        <v>9.396497262059711e-06</v>
       </c>
       <c r="CG12" t="n">
-        <v>5.823302126373164e-05</v>
+        <v>2.871934384529595e-06</v>
       </c>
       <c r="CH12" t="n">
-        <v>3.498922887956724e-05</v>
+        <v>2.066597062366782e-06</v>
       </c>
       <c r="CI12" t="n">
-        <v>4.069090664415853e-06</v>
+        <v>7.197412287496263e-06</v>
       </c>
       <c r="CJ12" t="n">
-        <v>4.91585124109406e-05</v>
+        <v>1.539567278996401e-06</v>
       </c>
       <c r="CK12" t="n">
-        <v>4.004976290161721e-06</v>
+        <v>1.829969733080361e-06</v>
       </c>
       <c r="CL12" t="n">
-        <v>6.036396371200681e-06</v>
+        <v>8.363645974895917e-06</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.704886017250828e-05</v>
+        <v>1.016184978652745e-05</v>
       </c>
       <c r="CN12" t="n">
-        <v>4.051617906952742e-06</v>
+        <v>5.619574494630797e-07</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.820169745769817e-05</v>
+        <v>4.344336502981605e-06</v>
       </c>
       <c r="CP12" t="n">
-        <v>2.756622598099057e-05</v>
+        <v>1.714616519166157e-05</v>
       </c>
       <c r="CQ12" t="n">
-        <v>5.873258487554267e-05</v>
+        <v>1.17337767733261e-05</v>
       </c>
       <c r="CR12" t="n">
-        <v>3.597421164158732e-05</v>
+        <v>3.398848093638662e-06</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.653239451115951e-06</v>
+        <v>1.138445895776385e-05</v>
       </c>
       <c r="CT12" t="n">
-        <v>4.454605368664488e-05</v>
+        <v>6.499084861388837e-07</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.735308251227252e-05</v>
+        <v>4.306688424549066e-06</v>
       </c>
       <c r="CV12" t="n">
-        <v>4.224353324389085e-05</v>
+        <v>7.449216354871169e-09</v>
       </c>
       <c r="CW12" t="n">
-        <v>7.375263521680608e-05</v>
+        <v>1.144473026215564e-05</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.975959094124846e-05</v>
+        <v>8.181626981240697e-06</v>
       </c>
       <c r="CY12" t="n">
-        <v>4.711822839453816e-05</v>
+        <v>7.58598025640822e-06</v>
       </c>
       <c r="CZ12" t="n">
-        <v>7.810904207872227e-06</v>
+        <v>4.03711965191178e-06</v>
       </c>
       <c r="DA12" t="n">
-        <v>2.742744413808396e-07</v>
+        <v>8.725599400349893e-06</v>
       </c>
       <c r="DB12" t="n">
-        <v>4.621514381142333e-05</v>
+        <v>3.18705110657902e-06</v>
       </c>
       <c r="DC12" t="n">
-        <v>6.362498425005469e-06</v>
+        <v>2.535137355152983e-06</v>
       </c>
       <c r="DD12" t="n">
-        <v>7.513423497584881e-06</v>
+        <v>6.152175501483725e-06</v>
       </c>
       <c r="DE12" t="n">
-        <v>6.020931323291734e-06</v>
+        <v>8.957989848568104e-06</v>
       </c>
       <c r="DF12" t="n">
-        <v>9.390046034241095e-05</v>
+        <v>2.588958750493475e-06</v>
       </c>
       <c r="DG12" t="n">
-        <v>2.661810140125453e-05</v>
+        <v>1.615383007447235e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>2.647687870194204e-05</v>
+        <v>3.280707824160345e-05</v>
       </c>
       <c r="DI12" t="n">
-        <v>5.022861296311021e-05</v>
+        <v>1.548215368529782e-05</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.869668631115928e-05</v>
+        <v>9.342985322291497e-06</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.013321434584213e-05</v>
+        <v>1.973439793800935e-06</v>
       </c>
       <c r="DL12" t="n">
-        <v>5.078507456346415e-05</v>
+        <v>1.002393946691882e-05</v>
       </c>
       <c r="DM12" t="n">
-        <v>6.945228233234957e-05</v>
+        <v>7.915770765976049e-06</v>
       </c>
       <c r="DN12" t="n">
-        <v>7.950498911668546e-06</v>
+        <v>3.161551376251737e-07</v>
       </c>
       <c r="DO12" t="n">
-        <v>6.343601853586733e-05</v>
+        <v>5.508164576895069e-06</v>
       </c>
       <c r="DP12" t="n">
-        <v>2.22655162360752e-05</v>
+        <v>6.962243787711486e-06</v>
       </c>
       <c r="DQ12" t="n">
-        <v>2.049719478236511e-05</v>
+        <v>4.665243068302516e-06</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.747153328324202e-05</v>
+        <v>8.5101663671594e-07</v>
       </c>
       <c r="DS12" t="n">
-        <v>2.937248791567981e-05</v>
+        <v>2.16781177186931e-06</v>
       </c>
       <c r="DT12" t="n">
-        <v>3.002769517479464e-05</v>
+        <v>1.72102795659157e-06</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.817716035177e-05</v>
+        <v>1.816175767999084e-06</v>
       </c>
       <c r="DV12" t="n">
-        <v>3.422430017963052e-05</v>
+        <v>1.201446048071375e-05</v>
       </c>
       <c r="DW12" t="n">
-        <v>7.808380360074807e-06</v>
+        <v>7.798967999406159e-06</v>
       </c>
       <c r="DX12" t="n">
-        <v>3.134986400255002e-05</v>
+        <v>7.623175406479277e-06</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.927418270497583e-05</v>
+        <v>1.642202914808877e-05</v>
       </c>
       <c r="DZ12" t="n">
-        <v>9.379051334690303e-06</v>
+        <v>1.696227855063626e-06</v>
       </c>
       <c r="EA12" t="n">
-        <v>5.147342744749039e-05</v>
+        <v>5.355751909519313e-06</v>
       </c>
       <c r="EB12" t="n">
-        <v>3.113970888080075e-05</v>
+        <v>1.300307576457271e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>3.175005986122414e-05</v>
+        <v>3.682077931443928e-06</v>
       </c>
       <c r="ED12" t="n">
-        <v>7.796748832333833e-05</v>
+        <v>1.833296323638933e-06</v>
       </c>
       <c r="EE12" t="n">
-        <v>3.409552300581709e-05</v>
+        <v>4.31468436090654e-07</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.0001057726622093469</v>
+        <v>4.270603312761523e-06</v>
       </c>
       <c r="EG12" t="n">
-        <v>9.892767411656678e-05</v>
+        <v>1.09040174720576e-05</v>
       </c>
       <c r="EH12" t="n">
-        <v>2.851005410775542e-05</v>
+        <v>5.141805104358355e-06</v>
       </c>
       <c r="EI12" t="n">
-        <v>9.046810009749606e-05</v>
+        <v>3.620965344452998e-06</v>
       </c>
       <c r="EJ12" t="n">
-        <v>3.864894097205251e-05</v>
+        <v>3.668984390969854e-06</v>
       </c>
       <c r="EK12" t="n">
-        <v>2.17986453208141e-05</v>
+        <v>6.424852927011671e-06</v>
       </c>
       <c r="EL12" t="n">
-        <v>1.303135377384024e-05</v>
+        <v>6.4732685132185e-06</v>
       </c>
       <c r="EM12" t="n">
-        <v>1.840020922827534e-05</v>
+        <v>3.126942601738847e-06</v>
       </c>
       <c r="EN12" t="n">
-        <v>3.780062797886785e-06</v>
+        <v>3.595436510295258e-06</v>
       </c>
       <c r="EO12" t="n">
-        <v>9.846642569755204e-06</v>
+        <v>2.034901854131022e-06</v>
       </c>
       <c r="EP12" t="n">
-        <v>8.921478729462251e-05</v>
+        <v>1.246132455889892e-06</v>
       </c>
       <c r="EQ12" t="n">
-        <v>1.404867725796066e-05</v>
+        <v>9.99432540993439e-06</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.564974809298292e-05</v>
+        <v>1.079087951438851e-06</v>
       </c>
       <c r="ES12" t="n">
-        <v>2.993161251652054e-05</v>
+        <v>7.033290785329882e-06</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.227918255608529e-05</v>
+        <v>1.408346179232467e-06</v>
       </c>
       <c r="EU12" t="n">
-        <v>2.950614725705236e-05</v>
+        <v>4.430232365848497e-06</v>
       </c>
       <c r="EV12" t="n">
-        <v>2.29687757382635e-05</v>
+        <v>1.980825254577212e-05</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.019269529933808e-05</v>
+        <v>1.708279228296306e-06</v>
       </c>
       <c r="EX12" t="n">
-        <v>5.100519047118723e-05</v>
+        <v>1.653781737331883e-06</v>
       </c>
       <c r="EY12" t="n">
-        <v>5.504005093825981e-05</v>
+        <v>1.059776968759252e-05</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.704674832581077e-05</v>
+        <v>6.857562311779475e-06</v>
       </c>
       <c r="FA12" t="n">
-        <v>5.188210343476385e-05</v>
+        <v>4.827447810384911e-06</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.638254070712719e-05</v>
+        <v>1.613116069165699e-06</v>
       </c>
       <c r="FC12" t="n">
-        <v>1.302581949857995e-05</v>
+        <v>7.343699053308228e-06</v>
       </c>
       <c r="FD12" t="n">
-        <v>4.40216354036238e-05</v>
+        <v>3.065085820708191e-06</v>
       </c>
       <c r="FE12" t="n">
-        <v>5.569183485931717e-06</v>
+        <v>1.183496010526142e-06</v>
       </c>
       <c r="FF12" t="n">
-        <v>5.662484454660444e-07</v>
+        <v>9.218875675287563e-06</v>
       </c>
       <c r="FG12" t="n">
-        <v>2.98507420666283e-05</v>
+        <v>7.845474101486616e-06</v>
       </c>
       <c r="FH12" t="n">
-        <v>2.400840457994491e-05</v>
+        <v>1.33439516503131e-06</v>
       </c>
       <c r="FI12" t="n">
-        <v>3.182768523402046e-06</v>
+        <v>1.547741339891218e-05</v>
       </c>
       <c r="FJ12" t="n">
-        <v>3.179988561896607e-05</v>
+        <v>1.432182580174413e-05</v>
       </c>
       <c r="FK12" t="n">
-        <v>5.85145789955277e-05</v>
+        <v>2.480612238286994e-06</v>
       </c>
       <c r="FL12" t="n">
-        <v>3.628439299063757e-05</v>
+        <v>9.623974619898945e-06</v>
       </c>
       <c r="FM12" t="n">
-        <v>2.436997965560295e-05</v>
+        <v>3.748784365598112e-06</v>
       </c>
       <c r="FN12" t="n">
-        <v>2.005913120228797e-05</v>
+        <v>1.360024634777801e-05</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.079501998901833e-06</v>
+        <v>9.698734174889978e-06</v>
       </c>
       <c r="FP12" t="n">
-        <v>6.011431833030656e-05</v>
+        <v>1.956377673195675e-06</v>
       </c>
       <c r="FQ12" t="n">
-        <v>9.303170372731984e-05</v>
+        <v>6.257046152313706e-07</v>
       </c>
       <c r="FR12" t="n">
-        <v>3.045864286832511e-05</v>
+        <v>7.069001185300294e-06</v>
       </c>
       <c r="FS12" t="n">
-        <v>8.667695510666817e-06</v>
+        <v>7.760952939861454e-06</v>
       </c>
       <c r="FT12" t="n">
-        <v>3.107438533334062e-05</v>
+        <v>1.862791577877942e-05</v>
       </c>
       <c r="FU12" t="n">
-        <v>8.098381658783183e-05</v>
+        <v>2.242194057089364e-07</v>
       </c>
       <c r="FV12" t="n">
-        <v>4.409254688653164e-05</v>
+        <v>1.054391486832174e-05</v>
       </c>
       <c r="FW12" t="n">
-        <v>9.43963914323831e-06</v>
+        <v>6.83273628965253e-06</v>
       </c>
       <c r="FX12" t="n">
-        <v>1.964606417459436e-05</v>
+        <v>6.081335413909983e-06</v>
       </c>
       <c r="FY12" t="n">
-        <v>5.65111477044411e-05</v>
+        <v>2.16782464121934e-05</v>
       </c>
       <c r="FZ12" t="n">
-        <v>2.744352241279557e-05</v>
+        <v>8.888843694876414e-06</v>
       </c>
       <c r="GA12" t="n">
-        <v>5.328305996954441e-05</v>
+        <v>1.406504338774539e-06</v>
       </c>
       <c r="GB12" t="n">
-        <v>4.60986775578931e-05</v>
+        <v>2.259260782011552e-06</v>
       </c>
       <c r="GC12" t="n">
-        <v>1.23314111988293e-05</v>
+        <v>1.960118061106186e-05</v>
       </c>
       <c r="GD12" t="n">
-        <v>7.429805009451229e-06</v>
+        <v>6.693657269352116e-06</v>
       </c>
       <c r="GE12" t="n">
-        <v>3.256891068303958e-05</v>
+        <v>2.288739779032767e-05</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.686001996858977e-05</v>
+        <v>3.778666268772213e-06</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.891371175588574e-05</v>
+        <v>9.640801181376446e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.3211342692375183</v>
+        <v>0.04699476808309555</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09711006283760071</v>
+        <v>0.6085106730461121</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6219948530197144</v>
+        <v>0.00711769238114357</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0523800365626812</v>
+        <v>0.2915952205657959</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2020867466926575</v>
+        <v>0.007394906133413315</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1633784174919128</v>
+        <v>0.8984547853469849</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03136759251356125</v>
+        <v>0.3849587142467499</v>
       </c>
       <c r="H13" t="n">
-        <v>0.113337054848671</v>
+        <v>0.4649426341056824</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2481801211833954</v>
+        <v>0.1116535142064095</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3463027775287628</v>
+        <v>0.05693789944052696</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1209120899438858</v>
+        <v>0.5256167650222778</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6004884243011475</v>
+        <v>0.006463614292442799</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01261412911117077</v>
+        <v>0.1218544989824295</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02292735129594803</v>
+        <v>0.1191391944885254</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0880308598279953</v>
+        <v>0.6170530319213867</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03196851164102554</v>
+        <v>0.3803134560585022</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.06786240637302399</v>
+        <v>0.2805252373218536</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2402654886245728</v>
+        <v>0.07124023884534836</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01467897742986679</v>
+        <v>0.027482770383358</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1171587556600571</v>
+        <v>0.001663237810134888</v>
       </c>
       <c r="U13" t="n">
-        <v>0.005309777799993753</v>
+        <v>0.04697916284203529</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04448643326759338</v>
+        <v>0.1806136816740036</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0433989129960537</v>
+        <v>0.2905216813087463</v>
       </c>
       <c r="X13" t="n">
-        <v>0.004219147376716137</v>
+        <v>0.176475316286087</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01143761072307825</v>
+        <v>0.01070922985672951</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01576137728989124</v>
+        <v>0.07274609804153442</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01827951148152351</v>
+        <v>0.1016378775238991</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01327747665345669</v>
+        <v>0.009797601960599422</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.04838414490222931</v>
+        <v>0.04500667750835419</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0166403092443943</v>
+        <v>0.0749971866607666</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.08002066612243652</v>
+        <v>0.1155007481575012</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02298998646438122</v>
+        <v>0.1569711118936539</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.02037392742931843</v>
+        <v>0.1186982020735741</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0382096916437149</v>
+        <v>0.007622528821229935</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.06222265586256981</v>
+        <v>0.02130997367203236</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0758240818977356</v>
+        <v>0.01248483452945948</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.09726367890834808</v>
+        <v>0.06798657029867172</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.149700403213501</v>
+        <v>0.01751836761832237</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.08733739703893661</v>
+        <v>0.06749983876943588</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.08945319056510925</v>
+        <v>0.08598515391349792</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.005545701831579208</v>
+        <v>0.08975786715745926</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.06093989685177803</v>
+        <v>0.1656081676483154</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.001841381192207336</v>
+        <v>0.02650312334299088</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.03166833147406578</v>
+        <v>0.06592234224081039</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.02952624298632145</v>
+        <v>0.001992212608456612</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1341968029737473</v>
+        <v>0.08515187352895737</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1644640266895294</v>
+        <v>0.2968869507312775</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.2961548566818237</v>
+        <v>0.005294982343912125</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.03992551565170288</v>
+        <v>0.2733238935470581</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.02538480795919895</v>
+        <v>0.2645565569400787</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.06705150753259659</v>
+        <v>0.6419318318367004</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.08370794355869293</v>
+        <v>0.2556039094924927</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.05897866189479828</v>
+        <v>0.1334670931100845</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1037615686655045</v>
+        <v>0.1616614311933517</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.01378677785396576</v>
+        <v>0.03428122773766518</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.017412930727005</v>
+        <v>0.1154622733592987</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.1283286064863205</v>
+        <v>0.007393550127744675</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.03189350664615631</v>
+        <v>0.1820558160543442</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1675835847854614</v>
+        <v>0.0638725683093071</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.09179747849702835</v>
+        <v>0.1481054574251175</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.09986292570829391</v>
+        <v>0.01191925350576639</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.07278531044721603</v>
+        <v>0.01297049317508936</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.03131661936640739</v>
+        <v>0.04803067445755005</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.01087614987045527</v>
+        <v>0.0120941698551178</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.06285512447357178</v>
+        <v>0.104113981127739</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.1176435649394989</v>
+        <v>0.01473462209105492</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01307290606200695</v>
+        <v>0.1553873270750046</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.1205828934907913</v>
+        <v>0.0603918582201004</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.1059150546789169</v>
+        <v>0.09982394427061081</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.07078365981578827</v>
+        <v>0.08337058126926422</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.1065329685807228</v>
+        <v>0.2437253445386887</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.01662030629813671</v>
+        <v>0.2174748629331589</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.1638416647911072</v>
+        <v>0.007346884347498417</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.02160867303609848</v>
+        <v>0.2427661567926407</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.1460000723600388</v>
+        <v>0.006007738411426544</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.001941071823239326</v>
+        <v>0.1408645212650299</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.08827227354049683</v>
+        <v>0.1214482337236404</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.1073614358901978</v>
+        <v>0.3313214778900146</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.02628123015165329</v>
+        <v>0.01898065581917763</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.03000345453619957</v>
+        <v>0.05115257203578949</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.07151465117931366</v>
+        <v>0.01040492672473192</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.06971575319766998</v>
+        <v>0.01646341383457184</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.1271106451749802</v>
+        <v>0.09114747494459152</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.123029001057148</v>
+        <v>0.009127210825681686</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.009428423829376698</v>
+        <v>0.0004276745021343231</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.01520969159901142</v>
+        <v>0.05432271212339401</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.01495278812944889</v>
+        <v>0.1456125378608704</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.002252146368846297</v>
+        <v>0.09963318705558777</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.01543840207159519</v>
+        <v>0.1383202373981476</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0403880849480629</v>
+        <v>0.01855291426181793</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0004329681396484375</v>
+        <v>0.06389898806810379</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.004779798910021782</v>
+        <v>0.0542585626244545</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0713273286819458</v>
+        <v>0.02378715947270393</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.06372777372598648</v>
+        <v>0.1165481358766556</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.0686490461230278</v>
+        <v>0.2970905005931854</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.06990011781454086</v>
+        <v>0.110188752412796</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.01566299423575401</v>
+        <v>0.009818576276302338</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0449649915099144</v>
+        <v>0.1204338669776917</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.003000944852828979</v>
+        <v>0.05695029348134995</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.06462296843528748</v>
+        <v>0.00160591397434473</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.1216293945908546</v>
+        <v>0.09487833082675934</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.1165810227394104</v>
+        <v>0.01858217641711235</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.01270975265651941</v>
+        <v>0.0210321731865406</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.07023312151432037</v>
+        <v>0.04193668439984322</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.01633929833769798</v>
+        <v>0.1824123859405518</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.001578415278345346</v>
+        <v>0.1006607338786125</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.00754186324775219</v>
+        <v>0.1732269078493118</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.04356351494789124</v>
+        <v>0.04838245362043381</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.01502188108861446</v>
+        <v>0.03328055143356323</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.2141380906105042</v>
+        <v>0.2421386390924454</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.1786036193370819</v>
+        <v>0.04942579194903374</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.03792580962181091</v>
+        <v>0.3218121528625488</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.01522722188383341</v>
+        <v>0.06511297821998596</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.08369986712932587</v>
+        <v>0.1077699959278107</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.005114680156111717</v>
+        <v>0.1102740094065666</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.05070438235998154</v>
+        <v>0.2542385160923004</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.01069475337862968</v>
+        <v>0.1479842662811279</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0009021847508847713</v>
+        <v>0.01413971930742264</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.1122107803821564</v>
+        <v>0.003481380641460419</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.002654075622558594</v>
+        <v>0.07011018693447113</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.002569429576396942</v>
+        <v>0.1028220877051353</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.06738477945327759</v>
+        <v>0.09651200473308563</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.1223703324794769</v>
+        <v>0.2437379956245422</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.02893171086907387</v>
+        <v>0.114061675965786</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.05493343621492386</v>
+        <v>0.02766820788383484</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.04088544845581055</v>
+        <v>0.01082398183643818</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.03489807620644569</v>
+        <v>0.02705519832670689</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.01358605828136206</v>
+        <v>0.01180175133049488</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.04134217649698257</v>
+        <v>0.03351416066288948</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.03888420015573502</v>
+        <v>0.01067198161035776</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.05943613499403</v>
+        <v>0.05246668308973312</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.03020185232162476</v>
+        <v>0.02510610967874527</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.02803323417901993</v>
+        <v>0.09090652316808701</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.118892677128315</v>
+        <v>0.0700814425945282</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.006379902362823486</v>
+        <v>0.1403441578149796</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.1167546510696411</v>
+        <v>0.02004476636648178</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.06425558030605316</v>
+        <v>0.05087633430957794</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.1552447825670242</v>
+        <v>0.05740824341773987</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.05778703093528748</v>
+        <v>0.1528827100992203</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.01054616272449493</v>
+        <v>0.07833103835582733</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.1090156733989716</v>
+        <v>0.01796372979879379</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.02378883957862854</v>
+        <v>0.04898335412144661</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.1037097871303558</v>
+        <v>0.1472262442111969</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.01419613510370255</v>
+        <v>0.04372202605009079</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.01984819769859314</v>
+        <v>0.002382539678364992</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.06633757054805756</v>
+        <v>0.07782983779907227</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.004436396062374115</v>
+        <v>0.08143438398838043</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.005176303908228874</v>
+        <v>0.1338107138872147</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.07888978719711304</v>
+        <v>0.01460257545113564</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0268597099930048</v>
+        <v>0.007858556695282459</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.07716138660907745</v>
+        <v>0.03762096166610718</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.005191141739487648</v>
+        <v>0.2299095541238785</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.030046122148633</v>
+        <v>0.1690263599157333</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.07593581825494766</v>
+        <v>0.002382721751928329</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.09683467447757721</v>
+        <v>0.07609686255455017</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.1180812567472458</v>
+        <v>0.01467488892376423</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.01522843725979328</v>
+        <v>0.001023668795824051</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.06201260536909103</v>
+        <v>0.03689167276024818</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.005301549099385738</v>
+        <v>0.1282967180013657</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0009846363682299852</v>
+        <v>0.1202161535620689</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.03615583479404449</v>
+        <v>0.1454712897539139</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.04459325224161148</v>
+        <v>0.03230603784322739</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.04740624502301216</v>
+        <v>0.002853326499462128</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.04993292689323425</v>
+        <v>0.1173585280776024</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.1268536150455475</v>
+        <v>0.02690350636839867</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.1271527856588364</v>
+        <v>0.07820352911949158</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01957402005791664</v>
+        <v>0.08088413625955582</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0747799351811409</v>
+        <v>0.09304855763912201</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.06021005287766457</v>
+        <v>0.02079672366380692</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.010062868706882</v>
+        <v>0.08268590271472931</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.04399910941720009</v>
+        <v>0.01121564954519272</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.05781921744346619</v>
+        <v>0.09815074503421783</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.2344181090593338</v>
+        <v>0.1439857333898544</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.07110003381967545</v>
+        <v>0.06893680989742279</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.07723766565322876</v>
+        <v>0.08625209331512451</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.03362363949418068</v>
+        <v>0.01629137061536312</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.05381911247968674</v>
+        <v>0.1458102762699127</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.009460348635911942</v>
+        <v>0.05348407849669456</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.06891783326864243</v>
+        <v>0.09929762780666351</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.06759698688983917</v>
+        <v>0.2168488651514053</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.03751296177506447</v>
+        <v>0.02263677679002285</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.06542813032865524</v>
+        <v>0.05624157935380936</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.04779931902885437</v>
+        <v>0.06263427436351776</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.03572806715965271</v>
+        <v>0.139314591884613</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0915428027510643</v>
+        <v>0.4402727782726288</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.05006206780672073</v>
+        <v>0.05385250598192215</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.008696435950696468</v>
+        <v>0.1420992016792297</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.01335442811250687</v>
+        <v>0.09241326153278351</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.08954036980867386</v>
+        <v>0.06258931010961533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.06520956754684448</v>
+        <v>0.003734592813998461</v>
       </c>
       <c r="B14" t="n">
-        <v>0.205748975276947</v>
+        <v>0.001207777764648199</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04614613205194473</v>
+        <v>0.0005685239448212087</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07016775012016296</v>
+        <v>0.0002991388610098511</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1150628328323364</v>
+        <v>0.0002817322092596442</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04064949974417686</v>
+        <v>0.002890251576900482</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02050391025841236</v>
+        <v>0.0006184986559674144</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009192399680614471</v>
+        <v>0.001121404580771923</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08009514957666397</v>
+        <v>0.0008544462616555393</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04617177322506905</v>
+        <v>0.00268512824550271</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2031679749488831</v>
+        <v>0.001109452918171883</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01533376611769199</v>
+        <v>0.0003824998857453465</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01715346798300743</v>
+        <v>0.0002469570026732981</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1285108029842377</v>
+        <v>3.976204607170075e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0231555700302124</v>
+        <v>0.002486004726961255</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05332900583744049</v>
+        <v>0.001139584695920348</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.000341564416885376</v>
+        <v>0.0008283316856250167</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07599517703056335</v>
+        <v>0.0008517567766830325</v>
       </c>
       <c r="S14" t="n">
-        <v>0.001121856505051255</v>
+        <v>0.0006787461461499333</v>
       </c>
       <c r="T14" t="n">
-        <v>0.02164965867996216</v>
+        <v>0.0007741098525002599</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0007937535410746932</v>
+        <v>6.079630111344159e-06</v>
       </c>
       <c r="V14" t="n">
-        <v>0.02991996333003044</v>
+        <v>0.0002024144632741809</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02034670859575272</v>
+        <v>0.0008228833903558552</v>
       </c>
       <c r="X14" t="n">
-        <v>0.03423484414815903</v>
+        <v>0.0007809557137079537</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.02121852710843086</v>
+        <v>0.0002713187714107335</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.004577253479510546</v>
+        <v>0.0003330201143398881</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01192879863083363</v>
+        <v>8.69444411364384e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.04717321693897247</v>
+        <v>0.0007931838626973331</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01754065789282322</v>
+        <v>9.091528772842139e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.00429339986294508</v>
+        <v>0.0001091604717657901</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.02008585631847382</v>
+        <v>2.28438111662399e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.05065619572997093</v>
+        <v>0.0001956686319317669</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.01924294792115688</v>
+        <v>9.778921958059072e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.01764311268925667</v>
+        <v>0.0001412647106917575</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.03084078244864941</v>
+        <v>3.911861858796328e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.03085223585367203</v>
+        <v>0.0005609709769487381</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.01086674630641937</v>
+        <v>0.000528798729646951</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.04620008543133736</v>
+        <v>0.0002142779412679374</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.02653298899531364</v>
+        <v>0.0004169637686572969</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.02009748667478561</v>
+        <v>0.0001498407800681889</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.07010561972856522</v>
+        <v>0.0006701088277623057</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01838271506130695</v>
+        <v>0.000227137963520363</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.001457479316741228</v>
+        <v>0.0001988535077543929</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.002608840819448233</v>
+        <v>9.266896813642234e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.002179179340600967</v>
+        <v>0.0001020399940898642</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.03134066611528397</v>
+        <v>0.002437495859339833</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.116656020283699</v>
+        <v>0.0006289895391091704</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.03250158205628395</v>
+        <v>0.0006414127419702709</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.006320439279079437</v>
+        <v>0.0002391015295870602</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.03738204762339592</v>
+        <v>0.0001163752167485654</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.00467371754348278</v>
+        <v>0.001238556345924735</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0112853366881609</v>
+        <v>0.0005931774503551424</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.03450149297714233</v>
+        <v>0.0002207471407018602</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.01844079233705997</v>
+        <v>0.000332729279762134</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.01405723858624697</v>
+        <v>0.0006282441900111735</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.00824239756911993</v>
+        <v>0.0004982561804354191</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.009789362549781799</v>
+        <v>4.217059176880866e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.04599336534738541</v>
+        <v>6.780610419809818e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.0289729330688715</v>
+        <v>0.0001631935010664165</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.003709880402311683</v>
+        <v>0.001355310319922864</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.0315341129899025</v>
+        <v>0.0001148650917457417</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.01428837142884731</v>
+        <v>1.454183802707121e-06</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.06541586667299271</v>
+        <v>0.0007229281472973526</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.005433572456240654</v>
+        <v>0.0003428318887017667</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.009791607037186623</v>
+        <v>4.475488094612956e-05</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.05868977308273315</v>
+        <v>0.0003066163044422865</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.004340929444879293</v>
+        <v>3.164585723425262e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.003128994954749942</v>
+        <v>0.0001189483300549909</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.05111140012741089</v>
+        <v>1.327442078036256e-06</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.05255650728940964</v>
+        <v>0.0002329862327314913</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.02651804685592651</v>
+        <v>0.0002221913455286995</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.004338542465120554</v>
+        <v>0.0002005458372877911</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.02215800806879997</v>
+        <v>0.001187929883599281</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.05373011156916618</v>
+        <v>0.0002754353336058557</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.003837366355583072</v>
+        <v>0.000561047054361552</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.004812711849808693</v>
+        <v>0.000303790089674294</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.08277659863233566</v>
+        <v>0.0005462762201204896</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.02707759663462639</v>
+        <v>0.001030073151923716</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.03984358161687851</v>
+        <v>0.0002494020154699683</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.0006746123544871807</v>
+        <v>0.0002609372895676643</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.009876149706542492</v>
+        <v>8.737795724300668e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.006872444413602352</v>
+        <v>0.0007809242233633995</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.03628792986273766</v>
+        <v>0.0005680614267475903</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.03381453081965446</v>
+        <v>8.143654122250155e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.002109016524627805</v>
+        <v>3.844875027425587e-05</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.03344019502401352</v>
+        <v>9.349857282359153e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.01228509098291397</v>
+        <v>0.0003163014771416783</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.01505927182734013</v>
+        <v>0.0002027834416367114</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.0008637088467366993</v>
+        <v>0.0003274056361988187</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.00419542333111167</v>
+        <v>3.080025635426864e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.001615607179701328</v>
+        <v>0.0003973106213379651</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.05201079323887825</v>
+        <v>0.0009811522904783487</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.004607514478266239</v>
+        <v>4.710799839813262e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.0116017647087574</v>
+        <v>0.000619688828010112</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.01951970160007477</v>
+        <v>0.0005995154497213662</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.01161618530750275</v>
+        <v>9.907849016599357e-05</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.003616005647927523</v>
+        <v>0.000164614524692297</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.008449770510196686</v>
+        <v>0.0005457806400954723</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.0004042828804813325</v>
+        <v>0.0002940876292996109</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.005965797696262598</v>
+        <v>0.0007421079790219665</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.02710178308188915</v>
+        <v>0.0006235064938664436</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.03407707810401917</v>
+        <v>5.739946209359914e-05</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.0121360095217824</v>
+        <v>5.130205681780353e-05</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02820740081369877</v>
+        <v>4.350060407887213e-06</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.01134059391915798</v>
+        <v>0.0002357341872993857</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.01513008214533329</v>
+        <v>0.0001103471295209602</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.001990010496228933</v>
+        <v>0.0003565287333913147</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.01247027982026339</v>
+        <v>4.743190947920084e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.03098569437861443</v>
+        <v>0.0001636118395254016</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.01200058497488499</v>
+        <v>0.0002138067211490124</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.07744652777910233</v>
+        <v>0.0002534915402065963</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.01719143427908421</v>
+        <v>0.0002056030207313597</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.03040510602295399</v>
+        <v>0.001147456467151642</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.006643570959568024</v>
+        <v>0.0005392696475610137</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.04303419589996338</v>
+        <v>0.0003153375291731209</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.01732219196856022</v>
+        <v>0.0006618935149163008</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.02648329548537731</v>
+        <v>0.0007693394436500967</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.002259186469018459</v>
+        <v>0.0006967692170292139</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.0190681517124176</v>
+        <v>0.0001826046063797548</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.03452073410153389</v>
+        <v>0.0001733361423248425</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.004368050955235958</v>
+        <v>0.0002392480382695794</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.003807183355093002</v>
+        <v>4.576031642500311e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.003331948071718216</v>
+        <v>0.0005701115587726235</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.01056134141981602</v>
+        <v>0.0001527168496977538</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.03329277411103249</v>
+        <v>0.0002593350945971906</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.009994750842452049</v>
+        <v>0.0003529317036736757</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.01579127460718155</v>
+        <v>0.0002980726421810687</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.003096679225564003</v>
+        <v>0.0001132479956140742</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.003748760093003511</v>
+        <v>0.000121130928164348</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0196660291403532</v>
+        <v>0.0003406698815524578</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.008006192743778229</v>
+        <v>1.261352736037225e-05</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.005301645025610924</v>
+        <v>0.0001138438310590573</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.02159484848380089</v>
+        <v>5.56005907128565e-05</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.01087787840515375</v>
+        <v>0.0002814257168211043</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.04506047070026398</v>
+        <v>0.000494366220664233</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.02684086933732033</v>
+        <v>0.0004170929896645248</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.039506696164608</v>
+        <v>0.0005002926918677986</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.05545691028237343</v>
+        <v>3.58741181116784e-06</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.02626840025186539</v>
+        <v>0.0001493844902142882</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.03850036114454269</v>
+        <v>1.245189923793077e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.03137188777327538</v>
+        <v>0.0001408736861776561</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.008967511355876923</v>
+        <v>0.0003122860507573932</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.01614470034837723</v>
+        <v>0.0001588880259077996</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.002557180123403668</v>
+        <v>6.156678864499554e-06</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.009759107604622841</v>
+        <v>0.0003105473588220775</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.009003006853163242</v>
+        <v>0.001097609987482429</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.02803945541381836</v>
+        <v>1.567017170600593e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.0002655521966516972</v>
+        <v>8.334565791301429e-05</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.00151135353371501</v>
+        <v>0.0003804145380854607</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.03482819348573685</v>
+        <v>9.671317820902914e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.005606392398476601</v>
+        <v>7.258354162331671e-05</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.02621779777109623</v>
+        <v>0.000371664937119931</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.005434120073914528</v>
+        <v>9.937626600731164e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.01221681386232376</v>
+        <v>0.0006323502166196704</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.02464104071259499</v>
+        <v>0.0005759970517829061</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.02720201201736927</v>
+        <v>1.966179115697742e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.02043814770877361</v>
+        <v>0.000191137456567958</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.03152687847614288</v>
+        <v>2.75580860034097e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.01417856011539698</v>
+        <v>0.0002431355242151767</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.01056245714426041</v>
+        <v>0.0002465949510224164</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.002386640757322311</v>
+        <v>0.0004183685232419521</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.005850706249475479</v>
+        <v>8.448364678770304e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.006829620804637671</v>
+        <v>3.707941141328774e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.01583539508283138</v>
+        <v>0.0003130364057142287</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.01929452084004879</v>
+        <v>0.0001451380958314985</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.03686752542853355</v>
+        <v>0.0004275070386938751</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.03800899907946587</v>
+        <v>7.286892650881782e-05</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.02830975502729416</v>
+        <v>3.011664375662804e-07</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.02951791509985924</v>
+        <v>0.0003121381159871817</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.001089640893042088</v>
+        <v>0.0004582517722155899</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.01277659740298986</v>
+        <v>0.0001637413224671036</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.04726239666342735</v>
+        <v>0.0009745701099745929</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.05866562947630882</v>
+        <v>0.0001603448909008875</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.02665213868021965</v>
+        <v>0.000194448497495614</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.0121785830706358</v>
+        <v>0.001093660015612841</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.01567927561700344</v>
+        <v>0.0004643009742721915</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.03728103637695312</v>
+        <v>0.0006287317373789847</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.01616500504314899</v>
+        <v>9.836902609094977e-05</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.01534938812255859</v>
+        <v>0.0001897149777505547</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.003505455795675516</v>
+        <v>0.0002316800819244236</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.007162021938711405</v>
+        <v>0.0001257205585716292</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.01886456646025181</v>
+        <v>0.0003705216222442687</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.0005660515744239092</v>
+        <v>0.0003500765888020396</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.05202530696988106</v>
+        <v>0.0001656924723647535</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.02620937302708626</v>
+        <v>5.427355063147843e-05</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0006762505508959293</v>
+        <v>0.0002025959838647395</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.04528680443763733</v>
+        <v>4.688679109676741e-05</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.01983914524316788</v>
+        <v>0.0001456334139220417</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.001533813774585724</v>
+        <v>0.0002153488167095929</v>
       </c>
     </row>
   </sheetData>
